--- a/final_samples_data.xlsx
+++ b/final_samples_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14580" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="39.75 mol%" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="24">
   <si>
     <t>Load</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Time: 22 June 12:05 PM started, finished 1:15 PM</t>
   </si>
   <si>
-    <t>Time: 32 June 9:45 AM started, finished</t>
-  </si>
-  <si>
     <t>First indent is 4 mm off each side from bottom left corner</t>
   </si>
   <si>
@@ -88,6 +85,18 @@
   </si>
   <si>
     <t>Time: 23 June 11:00 AM started, finished</t>
+  </si>
+  <si>
+    <t>what on earth (redone)</t>
+  </si>
+  <si>
+    <t>Time: 23 June 1:00 PM started, finished 2:00 PM</t>
+  </si>
+  <si>
+    <t>First indent is 1 mm off each side from bottom left corner</t>
+  </si>
+  <si>
+    <t>Time: 23 June 2:40 PM started, finished 3:30 PM</t>
   </si>
 </sst>
 </file>
@@ -634,7 +643,7 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -2445,7 +2454,7 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -4258,7 +4267,7 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -6066,12 +6075,12 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -7879,12 +7888,12 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -9671,6 +9680,1822 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L90"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="E5" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+    </row>
+    <row r="6" spans="2:12" s="1" customFormat="1">
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" s="2" customFormat="1">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" s="2" customFormat="1">
+      <c r="C8" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" s="2" customFormat="1">
+      <c r="C9" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="2" customFormat="1">
+      <c r="C10" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="2" customFormat="1">
+      <c r="C11" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="2" customFormat="1">
+      <c r="C12" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" s="2" customFormat="1">
+      <c r="C13" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" s="2" customFormat="1">
+      <c r="C14" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" s="2" customFormat="1">
+      <c r="C15" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" s="2" customFormat="1">
+      <c r="C16" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="3" customFormat="1">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="21">
+        <f>AVERAGE(E7:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" ref="F17:H17" si="0">AVERAGE(F7:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="3" customFormat="1">
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="21">
+        <f>STDEV(E7:E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" ref="F18:H18" si="1">STDEV(F7:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="4" customFormat="1">
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4">
+        <v>490.3</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="4" customFormat="1">
+      <c r="C20" s="4">
+        <v>490.3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="4" customFormat="1">
+      <c r="C21" s="4">
+        <v>490.3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="4" customFormat="1">
+      <c r="C22" s="4">
+        <v>490.3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="4" customFormat="1">
+      <c r="C23" s="4">
+        <v>490.3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="4" customFormat="1">
+      <c r="C24" s="4">
+        <v>490.3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" s="4" customFormat="1">
+      <c r="C25" s="4">
+        <v>490.3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" s="4" customFormat="1">
+      <c r="C26" s="4">
+        <v>490.3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" s="4" customFormat="1">
+      <c r="C27" s="4">
+        <v>490.3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" s="4" customFormat="1">
+      <c r="C28" s="4">
+        <v>490.3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" s="5" customFormat="1">
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="20">
+        <f>AVERAGE(E19:E28)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" ref="F29:H29" si="2">AVERAGE(F19:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" s="5" customFormat="1">
+      <c r="D30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="20">
+        <f>STDEV(E19:E28)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" ref="F30:H30" si="3">STDEV(F19:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" s="6" customFormat="1">
+      <c r="B31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="6">
+        <v>980.7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" s="6" customFormat="1">
+      <c r="C32" s="6">
+        <v>980.7</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" s="6" customFormat="1">
+      <c r="C33" s="6">
+        <v>980.7</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" s="6" customFormat="1">
+      <c r="C34" s="6">
+        <v>980.7</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" s="6" customFormat="1">
+      <c r="C35" s="6">
+        <v>980.7</v>
+      </c>
+      <c r="D35" s="7">
+        <v>5</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" s="6" customFormat="1">
+      <c r="C36" s="6">
+        <v>980.7</v>
+      </c>
+      <c r="D36" s="7">
+        <v>6</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" s="6" customFormat="1">
+      <c r="C37" s="6">
+        <v>980.7</v>
+      </c>
+      <c r="D37" s="7">
+        <v>7</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" s="6" customFormat="1">
+      <c r="C38" s="6">
+        <v>980.7</v>
+      </c>
+      <c r="D38" s="7">
+        <v>8</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" s="6" customFormat="1">
+      <c r="C39" s="6">
+        <v>980.7</v>
+      </c>
+      <c r="D39" s="7">
+        <v>9</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" s="6" customFormat="1">
+      <c r="C40" s="6">
+        <v>980.7</v>
+      </c>
+      <c r="D40" s="7">
+        <v>10</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" s="16" customFormat="1">
+      <c r="D41" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="19">
+        <f>AVERAGE(E31:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="19">
+        <f t="shared" ref="F41:H41" si="4">AVERAGE(F31:F40)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" s="16" customFormat="1">
+      <c r="D42" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="19">
+        <f>STDEV(E31:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="19">
+        <f t="shared" ref="F42:H42" si="5">STDEV(F31:F40)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" s="8" customFormat="1">
+      <c r="B43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1961</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" s="8" customFormat="1">
+      <c r="C44" s="8">
+        <v>1961</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" s="8" customFormat="1">
+      <c r="C45" s="8">
+        <v>1961</v>
+      </c>
+      <c r="D45" s="9">
+        <v>3</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" s="8" customFormat="1">
+      <c r="C46" s="8">
+        <v>1961</v>
+      </c>
+      <c r="D46" s="9">
+        <v>4</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" s="8" customFormat="1">
+      <c r="C47" s="8">
+        <v>1961</v>
+      </c>
+      <c r="D47" s="9">
+        <v>5</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" s="8" customFormat="1">
+      <c r="C48" s="8">
+        <v>1961</v>
+      </c>
+      <c r="D48" s="9">
+        <v>6</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" s="8" customFormat="1">
+      <c r="C49" s="8">
+        <v>1961</v>
+      </c>
+      <c r="D49" s="9">
+        <v>7</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0</v>
+      </c>
+      <c r="F49" s="9">
+        <v>0</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" s="8" customFormat="1">
+      <c r="C50" s="8">
+        <v>1961</v>
+      </c>
+      <c r="D50" s="9">
+        <v>8</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="8" customFormat="1">
+      <c r="C51" s="8">
+        <v>1961</v>
+      </c>
+      <c r="D51" s="9">
+        <v>9</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" s="8" customFormat="1">
+      <c r="C52" s="8">
+        <v>1961</v>
+      </c>
+      <c r="D52" s="9">
+        <v>10</v>
+      </c>
+      <c r="E52" s="9">
+        <v>0</v>
+      </c>
+      <c r="F52" s="9">
+        <v>0</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" s="8" customFormat="1">
+      <c r="D53" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="18">
+        <f>AVERAGE(E43:E52)</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="18">
+        <f t="shared" ref="F53:H53" si="6">AVERAGE(F43:F52)</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" s="8" customFormat="1">
+      <c r="D54" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="18">
+        <f>STDEV(E43:E52)</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="18">
+        <f t="shared" ref="F54:H54" si="7">STDEV(F43:F52)</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" s="10" customFormat="1">
+      <c r="B55" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="10">
+        <v>2942</v>
+      </c>
+      <c r="D55" s="11">
+        <v>1</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" s="10" customFormat="1">
+      <c r="C56" s="10">
+        <v>2942</v>
+      </c>
+      <c r="D56" s="11">
+        <v>2</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" s="10" customFormat="1">
+      <c r="C57" s="10">
+        <v>2942</v>
+      </c>
+      <c r="D57" s="11">
+        <v>3</v>
+      </c>
+      <c r="E57" s="11">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" s="10" customFormat="1">
+      <c r="C58" s="10">
+        <v>2942</v>
+      </c>
+      <c r="D58" s="11">
+        <v>4</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" s="10" customFormat="1">
+      <c r="C59" s="10">
+        <v>2942</v>
+      </c>
+      <c r="D59" s="11">
+        <v>5</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" s="10" customFormat="1">
+      <c r="C60" s="10">
+        <v>2942</v>
+      </c>
+      <c r="D60" s="11">
+        <v>6</v>
+      </c>
+      <c r="E60" s="11">
+        <v>0</v>
+      </c>
+      <c r="F60" s="11">
+        <v>0</v>
+      </c>
+      <c r="G60" s="11">
+        <v>0</v>
+      </c>
+      <c r="H60" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" s="10" customFormat="1">
+      <c r="C61" s="10">
+        <v>2942</v>
+      </c>
+      <c r="D61" s="11">
+        <v>7</v>
+      </c>
+      <c r="E61" s="11">
+        <v>0</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0</v>
+      </c>
+      <c r="G61" s="11">
+        <v>0</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" s="10" customFormat="1">
+      <c r="C62" s="10">
+        <v>2942</v>
+      </c>
+      <c r="D62" s="11">
+        <v>8</v>
+      </c>
+      <c r="E62" s="11">
+        <v>0</v>
+      </c>
+      <c r="F62" s="11">
+        <v>0</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" s="10" customFormat="1">
+      <c r="C63" s="10">
+        <v>2942</v>
+      </c>
+      <c r="D63" s="11">
+        <v>9</v>
+      </c>
+      <c r="E63" s="11">
+        <v>0</v>
+      </c>
+      <c r="F63" s="11">
+        <v>0</v>
+      </c>
+      <c r="G63" s="11">
+        <v>0</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" s="10" customFormat="1">
+      <c r="C64" s="10">
+        <v>2942</v>
+      </c>
+      <c r="D64" s="11">
+        <v>10</v>
+      </c>
+      <c r="E64" s="11">
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <v>0</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" s="10" customFormat="1">
+      <c r="D65" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="23">
+        <f>AVERAGE(E55:E64)</f>
+        <v>0</v>
+      </c>
+      <c r="F65" s="23">
+        <f t="shared" ref="F65:H65" si="8">AVERAGE(F55:F64)</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" s="10" customFormat="1">
+      <c r="D66" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="23">
+        <f>STDEV(E55:E64)</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="23">
+        <f t="shared" ref="F66:H66" si="9">STDEV(F55:F64)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" s="12" customFormat="1">
+      <c r="B67" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D67" s="13">
+        <v>1</v>
+      </c>
+      <c r="E67" s="13">
+        <v>0</v>
+      </c>
+      <c r="F67" s="13">
+        <v>0</v>
+      </c>
+      <c r="G67" s="13">
+        <v>0</v>
+      </c>
+      <c r="H67" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" s="12" customFormat="1">
+      <c r="C68" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D68" s="13">
+        <v>2</v>
+      </c>
+      <c r="E68" s="13">
+        <v>0</v>
+      </c>
+      <c r="F68" s="13">
+        <v>0</v>
+      </c>
+      <c r="G68" s="13">
+        <v>0</v>
+      </c>
+      <c r="H68" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" s="12" customFormat="1">
+      <c r="C69" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D69" s="13">
+        <v>3</v>
+      </c>
+      <c r="E69" s="13">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13">
+        <v>0</v>
+      </c>
+      <c r="G69" s="13">
+        <v>0</v>
+      </c>
+      <c r="H69" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" s="12" customFormat="1">
+      <c r="C70" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D70" s="13">
+        <v>4</v>
+      </c>
+      <c r="E70" s="13">
+        <v>0</v>
+      </c>
+      <c r="F70" s="13">
+        <v>0</v>
+      </c>
+      <c r="G70" s="13">
+        <v>0</v>
+      </c>
+      <c r="H70" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" s="12" customFormat="1">
+      <c r="C71" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D71" s="13">
+        <v>5</v>
+      </c>
+      <c r="E71" s="13">
+        <v>0</v>
+      </c>
+      <c r="F71" s="13">
+        <v>0</v>
+      </c>
+      <c r="G71" s="13">
+        <v>0</v>
+      </c>
+      <c r="H71" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" s="12" customFormat="1">
+      <c r="C72" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D72" s="13">
+        <v>6</v>
+      </c>
+      <c r="E72" s="13">
+        <v>0</v>
+      </c>
+      <c r="F72" s="13">
+        <v>0</v>
+      </c>
+      <c r="G72" s="13">
+        <v>0</v>
+      </c>
+      <c r="H72" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" s="12" customFormat="1">
+      <c r="C73" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D73" s="13">
+        <v>7</v>
+      </c>
+      <c r="E73" s="13">
+        <v>0</v>
+      </c>
+      <c r="F73" s="13">
+        <v>0</v>
+      </c>
+      <c r="G73" s="13">
+        <v>0</v>
+      </c>
+      <c r="H73" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" s="12" customFormat="1">
+      <c r="C74" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D74" s="13">
+        <v>8</v>
+      </c>
+      <c r="E74" s="13">
+        <v>0</v>
+      </c>
+      <c r="F74" s="13">
+        <v>0</v>
+      </c>
+      <c r="G74" s="13">
+        <v>0</v>
+      </c>
+      <c r="H74" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" s="12" customFormat="1">
+      <c r="C75" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D75" s="13">
+        <v>9</v>
+      </c>
+      <c r="E75" s="13">
+        <v>0</v>
+      </c>
+      <c r="F75" s="13">
+        <v>0</v>
+      </c>
+      <c r="G75" s="13">
+        <v>0</v>
+      </c>
+      <c r="H75" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" s="12" customFormat="1">
+      <c r="C76" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D76" s="13">
+        <v>10</v>
+      </c>
+      <c r="E76" s="13">
+        <v>0</v>
+      </c>
+      <c r="F76" s="13">
+        <v>0</v>
+      </c>
+      <c r="G76" s="13">
+        <v>0</v>
+      </c>
+      <c r="H76" s="13">
+        <v>0</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" s="12" customFormat="1">
+      <c r="D77" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="25">
+        <f>AVERAGE(E67:E76)</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="25">
+        <f t="shared" ref="F77:H77" si="10">AVERAGE(F67:F76)</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" s="12" customFormat="1">
+      <c r="D78" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="25">
+        <f>STDEV(E67:E76)</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="25">
+        <f t="shared" ref="F78:H78" si="11">STDEV(F67:F76)</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" s="14" customFormat="1">
+      <c r="B79" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D79" s="15">
+        <v>1</v>
+      </c>
+      <c r="E79" s="15">
+        <v>1</v>
+      </c>
+      <c r="F79" s="15">
+        <v>3</v>
+      </c>
+      <c r="G79" s="15">
+        <v>0</v>
+      </c>
+      <c r="H79" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" s="14" customFormat="1">
+      <c r="C80" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D80" s="15">
+        <v>2</v>
+      </c>
+      <c r="E80" s="15">
+        <v>0</v>
+      </c>
+      <c r="F80" s="15">
+        <v>0</v>
+      </c>
+      <c r="G80" s="15">
+        <v>0</v>
+      </c>
+      <c r="H80" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" s="14" customFormat="1">
+      <c r="C81" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D81" s="15">
+        <v>3</v>
+      </c>
+      <c r="E81" s="15">
+        <v>0</v>
+      </c>
+      <c r="F81" s="15">
+        <v>0</v>
+      </c>
+      <c r="G81" s="15">
+        <v>0</v>
+      </c>
+      <c r="H81" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" s="14" customFormat="1">
+      <c r="C82" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D82" s="15">
+        <v>4</v>
+      </c>
+      <c r="E82" s="15">
+        <v>0</v>
+      </c>
+      <c r="F82" s="15">
+        <v>0</v>
+      </c>
+      <c r="G82" s="15">
+        <v>0</v>
+      </c>
+      <c r="H82" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" s="14" customFormat="1">
+      <c r="C83" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D83" s="15">
+        <v>5</v>
+      </c>
+      <c r="E83" s="15">
+        <v>0</v>
+      </c>
+      <c r="F83" s="15">
+        <v>0</v>
+      </c>
+      <c r="G83" s="15">
+        <v>0</v>
+      </c>
+      <c r="H83" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" s="14" customFormat="1">
+      <c r="C84" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D84" s="15">
+        <v>6</v>
+      </c>
+      <c r="E84" s="15">
+        <v>0</v>
+      </c>
+      <c r="F84" s="15">
+        <v>0</v>
+      </c>
+      <c r="G84" s="15">
+        <v>0</v>
+      </c>
+      <c r="H84" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" s="14" customFormat="1">
+      <c r="C85" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D85" s="15">
+        <v>7</v>
+      </c>
+      <c r="E85" s="15">
+        <v>0</v>
+      </c>
+      <c r="F85" s="15">
+        <v>0</v>
+      </c>
+      <c r="G85" s="15">
+        <v>0</v>
+      </c>
+      <c r="H85" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" s="14" customFormat="1">
+      <c r="C86" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D86" s="15">
+        <v>8</v>
+      </c>
+      <c r="E86" s="15">
+        <v>0</v>
+      </c>
+      <c r="F86" s="15">
+        <v>0</v>
+      </c>
+      <c r="G86" s="15">
+        <v>0</v>
+      </c>
+      <c r="H86" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" s="14" customFormat="1">
+      <c r="C87" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D87" s="15">
+        <v>9</v>
+      </c>
+      <c r="E87" s="15">
+        <v>0</v>
+      </c>
+      <c r="F87" s="15">
+        <v>0</v>
+      </c>
+      <c r="G87" s="15">
+        <v>0</v>
+      </c>
+      <c r="H87" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" s="14" customFormat="1">
+      <c r="C88" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D88" s="15">
+        <v>10</v>
+      </c>
+      <c r="E88" s="15">
+        <v>0</v>
+      </c>
+      <c r="F88" s="15">
+        <v>0</v>
+      </c>
+      <c r="G88" s="15">
+        <v>0</v>
+      </c>
+      <c r="H88" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" s="14" customFormat="1">
+      <c r="D89" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="27">
+        <f>AVERAGE(E79:E88)</f>
+        <v>0.1</v>
+      </c>
+      <c r="F89" s="27">
+        <f t="shared" ref="F89:H89" si="12">AVERAGE(F79:F88)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G89" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" s="14" customFormat="1">
+      <c r="D90" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="27">
+        <f>STDEV(E79:E88)</f>
+        <v>0.31622776601683794</v>
+      </c>
+      <c r="F90" s="27">
+        <f t="shared" ref="F90:H90" si="13">STDEV(F79:F88)</f>
+        <v>0.94868329805051377</v>
+      </c>
+      <c r="G90" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:L5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -9692,12 +11517,12 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -9761,6 +11586,18 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:12" s="2" customFormat="1">
       <c r="C8" s="2">
@@ -9769,6 +11606,18 @@
       <c r="D8" s="2">
         <v>2</v>
       </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:12" s="2" customFormat="1">
       <c r="C9" s="2">
@@ -9777,6 +11626,18 @@
       <c r="D9" s="2">
         <v>3</v>
       </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:12" s="2" customFormat="1">
       <c r="C10" s="2">
@@ -9785,6 +11646,18 @@
       <c r="D10" s="2">
         <v>4</v>
       </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:12" s="2" customFormat="1">
       <c r="C11" s="2">
@@ -9793,6 +11666,18 @@
       <c r="D11" s="2">
         <v>5</v>
       </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:12" s="2" customFormat="1">
       <c r="C12" s="2">
@@ -9801,6 +11686,18 @@
       <c r="D12" s="2">
         <v>6</v>
       </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:12" s="2" customFormat="1">
       <c r="C13" s="2">
@@ -9809,6 +11706,18 @@
       <c r="D13" s="2">
         <v>7</v>
       </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:12" s="2" customFormat="1">
       <c r="C14" s="2">
@@ -9817,6 +11726,18 @@
       <c r="D14" s="2">
         <v>8</v>
       </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:12" s="2" customFormat="1">
       <c r="C15" s="2">
@@ -9825,66 +11746,102 @@
       <c r="D15" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" s="2" customFormat="1">
-      <c r="C16" s="2">
-        <v>245.2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10</v>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" s="3" customFormat="1">
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="21">
+        <f>AVERAGE(E7:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <f>AVERAGE(F7:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="21">
+        <f>AVERAGE(G7:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="21">
+        <f>AVERAGE(H7:H15)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:8" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="21" t="e">
-        <f>AVERAGE(E7:E16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="21" t="e">
-        <f t="shared" ref="F17:H17" si="0">AVERAGE(F7:F16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" s="3" customFormat="1">
-      <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="21" t="e">
-        <f>STDEV(E7:E16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="21" t="e">
-        <f t="shared" ref="F18:H18" si="1">STDEV(F7:F16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="E17" s="21">
+        <f>STDEV(E7:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
+        <f>STDEV(F7:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="21">
+        <f>STDEV(G7:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
+        <f>STDEV(H7:H15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="4" customFormat="1">
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4">
+        <v>490.3</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:8" s="4" customFormat="1">
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C19" s="4">
         <v>490.3</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:8" s="4" customFormat="1">
@@ -9892,7 +11849,19 @@
         <v>490.3</v>
       </c>
       <c r="D20" s="4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:8" s="4" customFormat="1">
@@ -9900,7 +11869,19 @@
         <v>490.3</v>
       </c>
       <c r="D21" s="4">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:8" s="4" customFormat="1">
@@ -9908,7 +11889,19 @@
         <v>490.3</v>
       </c>
       <c r="D22" s="4">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:8" s="4" customFormat="1">
@@ -9916,7 +11909,19 @@
         <v>490.3</v>
       </c>
       <c r="D23" s="4">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:8" s="4" customFormat="1">
@@ -9924,7 +11929,19 @@
         <v>490.3</v>
       </c>
       <c r="D24" s="4">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:8" s="4" customFormat="1">
@@ -9932,7 +11949,19 @@
         <v>490.3</v>
       </c>
       <c r="D25" s="4">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:8" s="4" customFormat="1">
@@ -9940,2063 +11969,1186 @@
         <v>490.3</v>
       </c>
       <c r="D26" s="4">
+        <v>9</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" s="5" customFormat="1">
+      <c r="D27" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" s="4" customFormat="1">
-      <c r="C27" s="4">
-        <v>490.3</v>
-      </c>
-      <c r="D27" s="4">
+      <c r="E27" s="20">
+        <f>AVERAGE(E18:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="20">
+        <f>AVERAGE(F18:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
+        <f>AVERAGE(G18:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="20">
+        <f>AVERAGE(H18:H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" s="5" customFormat="1">
+      <c r="D28" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" s="4" customFormat="1">
-      <c r="C28" s="4">
-        <v>490.3</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="E28" s="20">
+        <f>STDEV(E18:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="20">
+        <f>STDEV(F18:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="20">
+        <f>STDEV(G18:G26)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="20">
+        <f>STDEV(H18:H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" s="6" customFormat="1">
+      <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" s="5" customFormat="1">
-      <c r="D29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="20" t="e">
-        <f>AVERAGE(E19:E28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="20" t="e">
-        <f t="shared" ref="F29:H29" si="2">AVERAGE(F19:F28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" s="5" customFormat="1">
-      <c r="D30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="20" t="e">
-        <f>STDEV(E19:E28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="20" t="e">
-        <f t="shared" ref="F30:H30" si="3">STDEV(F19:F28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="C29" s="6">
+        <v>980.7</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" s="6" customFormat="1">
+      <c r="C30" s="6">
+        <v>980.7</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:8" s="6" customFormat="1">
-      <c r="B31" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="C31" s="6">
         <v>980.7</v>
       </c>
       <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="2:8" s="6" customFormat="1">
       <c r="C32" s="6">
         <v>980.7</v>
       </c>
       <c r="D32" s="7">
-        <v>2</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="2:8" s="6" customFormat="1">
       <c r="C33" s="6">
         <v>980.7</v>
       </c>
       <c r="D33" s="7">
-        <v>3</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:8" s="6" customFormat="1">
       <c r="C34" s="6">
         <v>980.7</v>
       </c>
       <c r="D34" s="7">
-        <v>4</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="2:8" s="6" customFormat="1">
       <c r="C35" s="6">
         <v>980.7</v>
       </c>
       <c r="D35" s="7">
-        <v>5</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="2:8" s="6" customFormat="1">
       <c r="C36" s="6">
         <v>980.7</v>
       </c>
       <c r="D36" s="7">
-        <v>6</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="2:8" s="6" customFormat="1">
       <c r="C37" s="6">
         <v>980.7</v>
       </c>
       <c r="D37" s="7">
-        <v>7</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="2:8" s="6" customFormat="1">
-      <c r="C38" s="6">
-        <v>980.7</v>
-      </c>
-      <c r="D38" s="7">
+        <v>9</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" s="16" customFormat="1">
+      <c r="D38" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="2:8" s="6" customFormat="1">
-      <c r="C39" s="6">
-        <v>980.7</v>
-      </c>
-      <c r="D39" s="7">
+      <c r="E38" s="19">
+        <f>AVERAGE(E29:E37)</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="19">
+        <f>AVERAGE(F29:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="19">
+        <f>AVERAGE(G29:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="19">
+        <f>AVERAGE(H29:H37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" s="16" customFormat="1">
+      <c r="D39" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="2:8" s="6" customFormat="1">
-      <c r="C40" s="6">
-        <v>980.7</v>
-      </c>
-      <c r="D40" s="7">
-        <v>10</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="2:8" s="16" customFormat="1">
-      <c r="D41" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="19" t="e">
-        <f>AVERAGE(E31:E40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41" s="19" t="e">
-        <f t="shared" ref="F41:H41" si="4">AVERAGE(F31:F40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" s="16" customFormat="1">
-      <c r="D42" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="19" t="e">
-        <f>STDEV(E31:E40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42" s="19" t="e">
-        <f t="shared" ref="F42:H42" si="5">STDEV(F31:F40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="19" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" s="19" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="E39" s="19">
+        <f>STDEV(E29:E37)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="19">
+        <f>STDEV(F29:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="19">
+        <f>STDEV(G29:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="19">
+        <f>STDEV(H29:H37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" s="8" customFormat="1">
+      <c r="B40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1961</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" s="8" customFormat="1">
+      <c r="C41" s="8">
+        <v>1961</v>
+      </c>
+      <c r="D41" s="9">
+        <v>2</v>
+      </c>
+      <c r="E41" s="9">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" s="8" customFormat="1">
+      <c r="C42" s="8">
+        <v>1961</v>
+      </c>
+      <c r="D42" s="9">
+        <v>3</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" s="8" customFormat="1">
-      <c r="B43" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="C43" s="8">
         <v>1961</v>
       </c>
       <c r="D43" s="9">
-        <v>1</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:8" s="8" customFormat="1">
       <c r="C44" s="8">
         <v>1961</v>
       </c>
       <c r="D44" s="9">
-        <v>2</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="2:8" s="8" customFormat="1">
       <c r="C45" s="8">
         <v>1961</v>
       </c>
       <c r="D45" s="9">
-        <v>3</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="2:8" s="8" customFormat="1">
       <c r="C46" s="8">
         <v>1961</v>
       </c>
       <c r="D46" s="9">
-        <v>4</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="2:8" s="8" customFormat="1">
       <c r="C47" s="8">
         <v>1961</v>
       </c>
       <c r="D47" s="9">
-        <v>5</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="2:8" s="8" customFormat="1">
       <c r="C48" s="8">
         <v>1961</v>
       </c>
       <c r="D48" s="9">
-        <v>6</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="2:8" s="8" customFormat="1">
-      <c r="C49" s="8">
-        <v>1961</v>
-      </c>
-      <c r="D49" s="9">
-        <v>7</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="D49" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="18">
+        <f>AVERAGE(E40:E48)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="18">
+        <f>AVERAGE(F40:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="18">
+        <f>AVERAGE(G40:G48)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="18">
+        <f>AVERAGE(H40:H48)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="2:8" s="8" customFormat="1">
-      <c r="C50" s="8">
-        <v>1961</v>
-      </c>
-      <c r="D50" s="9">
-        <v>8</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="2:8" s="8" customFormat="1">
-      <c r="C51" s="8">
-        <v>1961</v>
-      </c>
-      <c r="D51" s="9">
+      <c r="D50" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="2:8" s="8" customFormat="1">
-      <c r="C52" s="8">
-        <v>1961</v>
-      </c>
-      <c r="D52" s="9">
+      <c r="E50" s="18">
+        <f>STDEV(E40:E48)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="18">
+        <f>STDEV(F40:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="18">
+        <f>STDEV(G40:G48)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="18">
+        <f>STDEV(H40:H48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" s="10" customFormat="1">
+      <c r="B51" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="2:8" s="8" customFormat="1">
-      <c r="D53" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="18" t="e">
-        <f>AVERAGE(E43:E52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="18" t="e">
-        <f t="shared" ref="F53:H53" si="6">AVERAGE(F43:F52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" s="8" customFormat="1">
-      <c r="D54" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="18" t="e">
-        <f>STDEV(E43:E52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="18" t="e">
-        <f t="shared" ref="F54:H54" si="7">STDEV(F43:F52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G54" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H54" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="C51" s="10">
+        <v>2942</v>
+      </c>
+      <c r="D51" s="11">
+        <v>1</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" s="10" customFormat="1">
+      <c r="C52" s="10">
+        <v>2942</v>
+      </c>
+      <c r="D52" s="11">
+        <v>2</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" s="10" customFormat="1">
+      <c r="C53" s="10">
+        <v>2942</v>
+      </c>
+      <c r="D53" s="11">
+        <v>3</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" s="10" customFormat="1">
+      <c r="C54" s="10">
+        <v>2942</v>
+      </c>
+      <c r="D54" s="11">
+        <v>4</v>
+      </c>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:8" s="10" customFormat="1">
-      <c r="B55" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="C55" s="10">
         <v>2942</v>
       </c>
       <c r="D55" s="11">
-        <v>1</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="E55" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="2:8" s="10" customFormat="1">
       <c r="C56" s="10">
         <v>2942</v>
       </c>
       <c r="D56" s="11">
-        <v>2</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="2:8" s="10" customFormat="1">
       <c r="C57" s="10">
         <v>2942</v>
       </c>
       <c r="D57" s="11">
-        <v>3</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="E57" s="11">
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0</v>
+      </c>
+      <c r="H57" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="2:8" s="10" customFormat="1">
       <c r="C58" s="10">
         <v>2942</v>
       </c>
       <c r="D58" s="11">
-        <v>4</v>
-      </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="E58" s="11">
+        <v>0</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0</v>
+      </c>
+      <c r="H58" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="2:8" s="10" customFormat="1">
       <c r="C59" s="10">
         <v>2942</v>
       </c>
       <c r="D59" s="11">
+        <v>9</v>
+      </c>
+      <c r="E59" s="11">
+        <v>0</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" s="10" customFormat="1">
+      <c r="D60" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="23">
+        <f>AVERAGE(E51:E59)</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="23">
+        <f>AVERAGE(F51:F59)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="23">
+        <f>AVERAGE(G51:G59)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="23">
+        <f>AVERAGE(H51:H59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" s="10" customFormat="1">
+      <c r="D61" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="23">
+        <f>STDEV(E51:E59)</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="23">
+        <f>STDEV(F51:F59)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="23">
+        <f>STDEV(G51:G59)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="23">
+        <f>STDEV(H51:H59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" s="12" customFormat="1">
+      <c r="B62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D62" s="13">
+        <v>1</v>
+      </c>
+      <c r="E62" s="13">
+        <v>0</v>
+      </c>
+      <c r="F62" s="13">
+        <v>0</v>
+      </c>
+      <c r="G62" s="13">
+        <v>0</v>
+      </c>
+      <c r="H62" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" s="12" customFormat="1">
+      <c r="C63" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D63" s="13">
+        <v>2</v>
+      </c>
+      <c r="E63" s="13">
+        <v>0</v>
+      </c>
+      <c r="F63" s="13">
+        <v>0</v>
+      </c>
+      <c r="G63" s="13">
+        <v>0</v>
+      </c>
+      <c r="H63" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" s="12" customFormat="1">
+      <c r="C64" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D64" s="13">
+        <v>3</v>
+      </c>
+      <c r="E64" s="13">
+        <v>0</v>
+      </c>
+      <c r="F64" s="13">
+        <v>0</v>
+      </c>
+      <c r="G64" s="13">
+        <v>0</v>
+      </c>
+      <c r="H64" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" s="12" customFormat="1">
+      <c r="C65" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D65" s="13">
+        <v>4</v>
+      </c>
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="13">
+        <v>0</v>
+      </c>
+      <c r="G65" s="13">
+        <v>0</v>
+      </c>
+      <c r="H65" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" s="12" customFormat="1">
+      <c r="C66" s="12">
+        <v>4903</v>
+      </c>
+      <c r="D66" s="13">
         <v>5</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="2:8" s="10" customFormat="1">
-      <c r="C60" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D60" s="11">
-        <v>6</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61" spans="2:8" s="10" customFormat="1">
-      <c r="C61" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D61" s="11">
-        <v>7</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="2:8" s="10" customFormat="1">
-      <c r="C62" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D62" s="11">
-        <v>8</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" spans="2:8" s="10" customFormat="1">
-      <c r="C63" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D63" s="11">
-        <v>9</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="2:8" s="10" customFormat="1">
-      <c r="C64" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D64" s="11">
-        <v>10</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="2:8" s="10" customFormat="1">
-      <c r="D65" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="23" t="e">
-        <f>AVERAGE(E55:E64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F65" s="23" t="e">
-        <f t="shared" ref="F65:H65" si="8">AVERAGE(F55:F64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G65" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H65" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" s="10" customFormat="1">
-      <c r="D66" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="23" t="e">
-        <f>STDEV(E55:E64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F66" s="23" t="e">
-        <f t="shared" ref="F66:H66" si="9">STDEV(F55:F64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G66" s="23" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H66" s="23" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="E66" s="13">
+        <v>0</v>
+      </c>
+      <c r="F66" s="13">
+        <v>0</v>
+      </c>
+      <c r="G66" s="13">
+        <v>0</v>
+      </c>
+      <c r="H66" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:8" s="12" customFormat="1">
-      <c r="B67" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="C67" s="12">
         <v>4903</v>
       </c>
       <c r="D67" s="13">
-        <v>1</v>
-      </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="E67" s="13">
+        <v>0</v>
+      </c>
+      <c r="F67" s="13">
+        <v>0</v>
+      </c>
+      <c r="G67" s="13">
+        <v>0</v>
+      </c>
+      <c r="H67" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="2:8" s="12" customFormat="1">
       <c r="C68" s="12">
         <v>4903</v>
       </c>
       <c r="D68" s="13">
-        <v>2</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E68" s="13">
+        <v>0</v>
+      </c>
+      <c r="F68" s="13">
+        <v>0</v>
+      </c>
+      <c r="G68" s="13">
+        <v>0</v>
+      </c>
+      <c r="H68" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="2:8" s="12" customFormat="1">
       <c r="C69" s="12">
         <v>4903</v>
       </c>
       <c r="D69" s="13">
-        <v>3</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="E69" s="13">
+        <v>0</v>
+      </c>
+      <c r="F69" s="13">
+        <v>0</v>
+      </c>
+      <c r="G69" s="13">
+        <v>0</v>
+      </c>
+      <c r="H69" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="2:8" s="12" customFormat="1">
       <c r="C70" s="12">
         <v>4903</v>
       </c>
       <c r="D70" s="13">
+        <v>9</v>
+      </c>
+      <c r="E70" s="13">
+        <v>0</v>
+      </c>
+      <c r="F70" s="13">
+        <v>0</v>
+      </c>
+      <c r="G70" s="13">
+        <v>0</v>
+      </c>
+      <c r="H70" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" s="12" customFormat="1">
+      <c r="D71" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="25">
+        <f>AVERAGE(E62:E70)</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="25">
+        <f>AVERAGE(F62:F70)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="25">
+        <f>AVERAGE(G62:G70)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="25">
+        <f>AVERAGE(H62:H70)</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" s="12" customFormat="1">
+      <c r="D72" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="25">
+        <f>STDEV(E62:E70)</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="25">
+        <f>STDEV(F62:F70)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="25">
+        <f>STDEV(G62:G70)</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="25">
+        <f>STDEV(H62:H70)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" s="14" customFormat="1">
+      <c r="B73" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D73" s="15">
+        <v>1</v>
+      </c>
+      <c r="E73" s="15">
+        <v>0</v>
+      </c>
+      <c r="F73" s="15">
+        <v>0</v>
+      </c>
+      <c r="G73" s="15">
+        <v>0</v>
+      </c>
+      <c r="H73" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" s="14" customFormat="1">
+      <c r="C74" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D74" s="15">
+        <v>2</v>
+      </c>
+      <c r="E74" s="15">
+        <v>0</v>
+      </c>
+      <c r="F74" s="15">
+        <v>0</v>
+      </c>
+      <c r="G74" s="15">
+        <v>0</v>
+      </c>
+      <c r="H74" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" s="14" customFormat="1">
+      <c r="C75" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D75" s="15">
+        <v>3</v>
+      </c>
+      <c r="E75" s="15">
+        <v>0</v>
+      </c>
+      <c r="F75" s="15">
+        <v>0</v>
+      </c>
+      <c r="G75" s="15">
+        <v>0</v>
+      </c>
+      <c r="H75" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" s="14" customFormat="1">
+      <c r="C76" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D76" s="15">
         <v>4</v>
       </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-    </row>
-    <row r="71" spans="2:8" s="12" customFormat="1">
-      <c r="C71" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D71" s="13">
+      <c r="E76" s="15">
+        <v>0</v>
+      </c>
+      <c r="F76" s="15">
+        <v>0</v>
+      </c>
+      <c r="G76" s="15">
+        <v>0</v>
+      </c>
+      <c r="H76" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" s="14" customFormat="1">
+      <c r="C77" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D77" s="15">
         <v>5</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-    </row>
-    <row r="72" spans="2:8" s="12" customFormat="1">
-      <c r="C72" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D72" s="13">
+      <c r="E77" s="15">
+        <v>0</v>
+      </c>
+      <c r="F77" s="15">
+        <v>0</v>
+      </c>
+      <c r="G77" s="15">
+        <v>0</v>
+      </c>
+      <c r="H77" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" s="14" customFormat="1">
+      <c r="C78" s="14">
+        <v>9807</v>
+      </c>
+      <c r="D78" s="15">
         <v>6</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-    </row>
-    <row r="73" spans="2:8" s="12" customFormat="1">
-      <c r="C73" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D73" s="13">
-        <v>7</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-    </row>
-    <row r="74" spans="2:8" s="12" customFormat="1">
-      <c r="C74" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D74" s="13">
-        <v>8</v>
-      </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-    </row>
-    <row r="75" spans="2:8" s="12" customFormat="1">
-      <c r="C75" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D75" s="13">
-        <v>9</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-    </row>
-    <row r="76" spans="2:8" s="12" customFormat="1">
-      <c r="C76" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D76" s="13">
-        <v>10</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-    </row>
-    <row r="77" spans="2:8" s="12" customFormat="1">
-      <c r="D77" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="25" t="e">
-        <f>AVERAGE(E67:E76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F77" s="25" t="e">
-        <f t="shared" ref="F77:H77" si="10">AVERAGE(F67:F76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G77" s="25" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H77" s="25" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" s="12" customFormat="1">
-      <c r="D78" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="25" t="e">
-        <f>STDEV(E67:E76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F78" s="25" t="e">
-        <f t="shared" ref="F78:H78" si="11">STDEV(F67:F76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G78" s="25" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H78" s="25" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="E78" s="15">
+        <v>0</v>
+      </c>
+      <c r="F78" s="15">
+        <v>0</v>
+      </c>
+      <c r="G78" s="15">
+        <v>0</v>
+      </c>
+      <c r="H78" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:8" s="14" customFormat="1">
-      <c r="B79" s="14" t="s">
-        <v>10</v>
-      </c>
       <c r="C79" s="14">
         <v>9807</v>
       </c>
       <c r="D79" s="15">
-        <v>1</v>
-      </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
+        <v>7</v>
+      </c>
+      <c r="E79" s="15">
+        <v>0</v>
+      </c>
+      <c r="F79" s="15">
+        <v>0</v>
+      </c>
+      <c r="G79" s="15">
+        <v>0</v>
+      </c>
+      <c r="H79" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="2:8" s="14" customFormat="1">
       <c r="C80" s="14">
         <v>9807</v>
       </c>
       <c r="D80" s="15">
-        <v>2</v>
-      </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="E80" s="15">
+        <v>0</v>
+      </c>
+      <c r="F80" s="15">
+        <v>0</v>
+      </c>
+      <c r="G80" s="15">
+        <v>0</v>
+      </c>
+      <c r="H80" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="3:8" s="14" customFormat="1">
       <c r="C81" s="14">
         <v>9807</v>
       </c>
       <c r="D81" s="15">
-        <v>3</v>
-      </c>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="E81" s="15">
+        <v>0</v>
+      </c>
+      <c r="F81" s="15">
+        <v>0</v>
+      </c>
+      <c r="G81" s="15">
+        <v>0</v>
+      </c>
+      <c r="H81" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="3:8" s="14" customFormat="1">
-      <c r="C82" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D82" s="15">
-        <v>4</v>
-      </c>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
+      <c r="D82" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="27">
+        <f>AVERAGE(E73:E81)</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="27">
+        <f>AVERAGE(F73:F81)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="27">
+        <f>AVERAGE(G73:G81)</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="27">
+        <f>AVERAGE(H73:H81)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="3:8" s="14" customFormat="1">
-      <c r="C83" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D83" s="15">
-        <v>5</v>
-      </c>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-    </row>
-    <row r="84" spans="3:8" s="14" customFormat="1">
-      <c r="C84" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D84" s="15">
-        <v>6</v>
-      </c>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-    </row>
-    <row r="85" spans="3:8" s="14" customFormat="1">
-      <c r="C85" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D85" s="15">
-        <v>7</v>
-      </c>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-    </row>
-    <row r="86" spans="3:8" s="14" customFormat="1">
-      <c r="C86" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D86" s="15">
-        <v>8</v>
-      </c>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-    </row>
-    <row r="87" spans="3:8" s="14" customFormat="1">
-      <c r="C87" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D87" s="15">
+      <c r="D83" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-    </row>
-    <row r="88" spans="3:8" s="14" customFormat="1">
-      <c r="C88" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D88" s="15">
-        <v>10</v>
-      </c>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-    </row>
-    <row r="89" spans="3:8" s="14" customFormat="1">
-      <c r="D89" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="27" t="e">
-        <f>AVERAGE(E79:E88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F89" s="27" t="e">
-        <f t="shared" ref="F89:H89" si="12">AVERAGE(F79:F88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G89" s="27" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H89" s="27" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="90" spans="3:8" s="14" customFormat="1">
-      <c r="D90" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="27" t="e">
-        <f>STDEV(E79:E88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F90" s="27" t="e">
-        <f t="shared" ref="F90:H90" si="13">STDEV(F79:F88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G90" s="27" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H90" s="27" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:L5"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L90"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="E5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-    </row>
-    <row r="6" spans="2:12" s="1" customFormat="1">
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" s="2" customFormat="1">
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>245.2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" s="2" customFormat="1">
-      <c r="C8" s="2">
-        <v>245.2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" s="2" customFormat="1">
-      <c r="C9" s="2">
-        <v>245.2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" s="2" customFormat="1">
-      <c r="C10" s="2">
-        <v>245.2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" s="2" customFormat="1">
-      <c r="C11" s="2">
-        <v>245.2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" s="2" customFormat="1">
-      <c r="C12" s="2">
-        <v>245.2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" s="2" customFormat="1">
-      <c r="C13" s="2">
-        <v>245.2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" s="2" customFormat="1">
-      <c r="C14" s="2">
-        <v>245.2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" s="2" customFormat="1">
-      <c r="C15" s="2">
-        <v>245.2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" s="2" customFormat="1">
-      <c r="C16" s="2">
-        <v>245.2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" s="3" customFormat="1">
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="21" t="e">
-        <f>AVERAGE(E7:E16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="21" t="e">
-        <f t="shared" ref="F17:H17" si="0">AVERAGE(F7:F16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" s="3" customFormat="1">
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="21" t="e">
-        <f>STDEV(E7:E16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="21" t="e">
-        <f t="shared" ref="F18:H18" si="1">STDEV(F7:F16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" s="4" customFormat="1">
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4">
-        <v>490.3</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" s="4" customFormat="1">
-      <c r="C20" s="4">
-        <v>490.3</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" s="4" customFormat="1">
-      <c r="C21" s="4">
-        <v>490.3</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" s="4" customFormat="1">
-      <c r="C22" s="4">
-        <v>490.3</v>
-      </c>
-      <c r="D22" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" s="4" customFormat="1">
-      <c r="C23" s="4">
-        <v>490.3</v>
-      </c>
-      <c r="D23" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" s="4" customFormat="1">
-      <c r="C24" s="4">
-        <v>490.3</v>
-      </c>
-      <c r="D24" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" s="4" customFormat="1">
-      <c r="C25" s="4">
-        <v>490.3</v>
-      </c>
-      <c r="D25" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" s="4" customFormat="1">
-      <c r="C26" s="4">
-        <v>490.3</v>
-      </c>
-      <c r="D26" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" s="4" customFormat="1">
-      <c r="C27" s="4">
-        <v>490.3</v>
-      </c>
-      <c r="D27" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" s="4" customFormat="1">
-      <c r="C28" s="4">
-        <v>490.3</v>
-      </c>
-      <c r="D28" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" s="5" customFormat="1">
-      <c r="D29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="20" t="e">
-        <f>AVERAGE(E19:E28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="20" t="e">
-        <f t="shared" ref="F29:H29" si="2">AVERAGE(F19:F28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" s="5" customFormat="1">
-      <c r="D30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="20" t="e">
-        <f>STDEV(E19:E28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="20" t="e">
-        <f t="shared" ref="F30:H30" si="3">STDEV(F19:F28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" s="6" customFormat="1">
-      <c r="B31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="6">
-        <v>980.7</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:8" s="6" customFormat="1">
-      <c r="C32" s="6">
-        <v>980.7</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="2:8" s="6" customFormat="1">
-      <c r="C33" s="6">
-        <v>980.7</v>
-      </c>
-      <c r="D33" s="7">
-        <v>3</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="2:8" s="6" customFormat="1">
-      <c r="C34" s="6">
-        <v>980.7</v>
-      </c>
-      <c r="D34" s="7">
-        <v>4</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="2:8" s="6" customFormat="1">
-      <c r="C35" s="6">
-        <v>980.7</v>
-      </c>
-      <c r="D35" s="7">
-        <v>5</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="2:8" s="6" customFormat="1">
-      <c r="C36" s="6">
-        <v>980.7</v>
-      </c>
-      <c r="D36" s="7">
-        <v>6</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="2:8" s="6" customFormat="1">
-      <c r="C37" s="6">
-        <v>980.7</v>
-      </c>
-      <c r="D37" s="7">
-        <v>7</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="2:8" s="6" customFormat="1">
-      <c r="C38" s="6">
-        <v>980.7</v>
-      </c>
-      <c r="D38" s="7">
-        <v>8</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="2:8" s="6" customFormat="1">
-      <c r="C39" s="6">
-        <v>980.7</v>
-      </c>
-      <c r="D39" s="7">
-        <v>9</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="2:8" s="6" customFormat="1">
-      <c r="C40" s="6">
-        <v>980.7</v>
-      </c>
-      <c r="D40" s="7">
-        <v>10</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="2:8" s="16" customFormat="1">
-      <c r="D41" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="19" t="e">
-        <f>AVERAGE(E31:E40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41" s="19" t="e">
-        <f t="shared" ref="F41:H41" si="4">AVERAGE(F31:F40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H41" s="19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" s="16" customFormat="1">
-      <c r="D42" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="19" t="e">
-        <f>STDEV(E31:E40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42" s="19" t="e">
-        <f t="shared" ref="F42:H42" si="5">STDEV(F31:F40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="19" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H42" s="19" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" s="8" customFormat="1">
-      <c r="B43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="8">
-        <v>1961</v>
-      </c>
-      <c r="D43" s="9">
-        <v>1</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="2:8" s="8" customFormat="1">
-      <c r="C44" s="8">
-        <v>1961</v>
-      </c>
-      <c r="D44" s="9">
-        <v>2</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="2:8" s="8" customFormat="1">
-      <c r="C45" s="8">
-        <v>1961</v>
-      </c>
-      <c r="D45" s="9">
-        <v>3</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="2:8" s="8" customFormat="1">
-      <c r="C46" s="8">
-        <v>1961</v>
-      </c>
-      <c r="D46" s="9">
-        <v>4</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-    </row>
-    <row r="47" spans="2:8" s="8" customFormat="1">
-      <c r="C47" s="8">
-        <v>1961</v>
-      </c>
-      <c r="D47" s="9">
-        <v>5</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="2:8" s="8" customFormat="1">
-      <c r="C48" s="8">
-        <v>1961</v>
-      </c>
-      <c r="D48" s="9">
-        <v>6</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-    </row>
-    <row r="49" spans="2:8" s="8" customFormat="1">
-      <c r="C49" s="8">
-        <v>1961</v>
-      </c>
-      <c r="D49" s="9">
-        <v>7</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-    </row>
-    <row r="50" spans="2:8" s="8" customFormat="1">
-      <c r="C50" s="8">
-        <v>1961</v>
-      </c>
-      <c r="D50" s="9">
-        <v>8</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-    </row>
-    <row r="51" spans="2:8" s="8" customFormat="1">
-      <c r="C51" s="8">
-        <v>1961</v>
-      </c>
-      <c r="D51" s="9">
-        <v>9</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="2:8" s="8" customFormat="1">
-      <c r="C52" s="8">
-        <v>1961</v>
-      </c>
-      <c r="D52" s="9">
-        <v>10</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-    </row>
-    <row r="53" spans="2:8" s="8" customFormat="1">
-      <c r="D53" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="18" t="e">
-        <f>AVERAGE(E43:E52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="18" t="e">
-        <f t="shared" ref="F53:H53" si="6">AVERAGE(F43:F52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" s="18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" s="8" customFormat="1">
-      <c r="D54" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="18" t="e">
-        <f>STDEV(E43:E52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="18" t="e">
-        <f t="shared" ref="F54:H54" si="7">STDEV(F43:F52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G54" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H54" s="18" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" s="10" customFormat="1">
-      <c r="B55" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D55" s="11">
-        <v>1</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="2:8" s="10" customFormat="1">
-      <c r="C56" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D56" s="11">
-        <v>2</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="2:8" s="10" customFormat="1">
-      <c r="C57" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D57" s="11">
-        <v>3</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" spans="2:8" s="10" customFormat="1">
-      <c r="C58" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D58" s="11">
-        <v>4</v>
-      </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="59" spans="2:8" s="10" customFormat="1">
-      <c r="C59" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D59" s="11">
-        <v>5</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="2:8" s="10" customFormat="1">
-      <c r="C60" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D60" s="11">
-        <v>6</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61" spans="2:8" s="10" customFormat="1">
-      <c r="C61" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D61" s="11">
-        <v>7</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="2:8" s="10" customFormat="1">
-      <c r="C62" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D62" s="11">
-        <v>8</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" spans="2:8" s="10" customFormat="1">
-      <c r="C63" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D63" s="11">
-        <v>9</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="2:8" s="10" customFormat="1">
-      <c r="C64" s="10">
-        <v>2942</v>
-      </c>
-      <c r="D64" s="11">
-        <v>10</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="2:8" s="10" customFormat="1">
-      <c r="D65" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="23" t="e">
-        <f>AVERAGE(E55:E64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F65" s="23" t="e">
-        <f t="shared" ref="F65:H65" si="8">AVERAGE(F55:F64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G65" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H65" s="23" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" s="10" customFormat="1">
-      <c r="D66" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="23" t="e">
-        <f>STDEV(E55:E64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F66" s="23" t="e">
-        <f t="shared" ref="F66:H66" si="9">STDEV(F55:F64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G66" s="23" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H66" s="23" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" s="12" customFormat="1">
-      <c r="B67" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D67" s="13">
-        <v>1</v>
-      </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-    </row>
-    <row r="68" spans="2:8" s="12" customFormat="1">
-      <c r="C68" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D68" s="13">
-        <v>2</v>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-    </row>
-    <row r="69" spans="2:8" s="12" customFormat="1">
-      <c r="C69" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D69" s="13">
-        <v>3</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-    </row>
-    <row r="70" spans="2:8" s="12" customFormat="1">
-      <c r="C70" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D70" s="13">
-        <v>4</v>
-      </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-    </row>
-    <row r="71" spans="2:8" s="12" customFormat="1">
-      <c r="C71" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D71" s="13">
-        <v>5</v>
-      </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-    </row>
-    <row r="72" spans="2:8" s="12" customFormat="1">
-      <c r="C72" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D72" s="13">
-        <v>6</v>
-      </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-    </row>
-    <row r="73" spans="2:8" s="12" customFormat="1">
-      <c r="C73" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D73" s="13">
-        <v>7</v>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-    </row>
-    <row r="74" spans="2:8" s="12" customFormat="1">
-      <c r="C74" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D74" s="13">
-        <v>8</v>
-      </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-    </row>
-    <row r="75" spans="2:8" s="12" customFormat="1">
-      <c r="C75" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D75" s="13">
-        <v>9</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-    </row>
-    <row r="76" spans="2:8" s="12" customFormat="1">
-      <c r="C76" s="12">
-        <v>4903</v>
-      </c>
-      <c r="D76" s="13">
-        <v>10</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-    </row>
-    <row r="77" spans="2:8" s="12" customFormat="1">
-      <c r="D77" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="25" t="e">
-        <f>AVERAGE(E67:E76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F77" s="25" t="e">
-        <f t="shared" ref="F77:H77" si="10">AVERAGE(F67:F76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G77" s="25" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H77" s="25" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" s="12" customFormat="1">
-      <c r="D78" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="25" t="e">
-        <f>STDEV(E67:E76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F78" s="25" t="e">
-        <f t="shared" ref="F78:H78" si="11">STDEV(F67:F76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G78" s="25" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H78" s="25" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" s="14" customFormat="1">
-      <c r="B79" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D79" s="15">
-        <v>1</v>
-      </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-    </row>
-    <row r="80" spans="2:8" s="14" customFormat="1">
-      <c r="C80" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D80" s="15">
-        <v>2</v>
-      </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-    </row>
-    <row r="81" spans="3:8" s="14" customFormat="1">
-      <c r="C81" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D81" s="15">
-        <v>3</v>
-      </c>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-    </row>
-    <row r="82" spans="3:8" s="14" customFormat="1">
-      <c r="C82" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D82" s="15">
-        <v>4</v>
-      </c>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-    </row>
-    <row r="83" spans="3:8" s="14" customFormat="1">
-      <c r="C83" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D83" s="15">
-        <v>5</v>
-      </c>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-    </row>
-    <row r="84" spans="3:8" s="14" customFormat="1">
-      <c r="C84" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D84" s="15">
-        <v>6</v>
-      </c>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-    </row>
-    <row r="85" spans="3:8" s="14" customFormat="1">
-      <c r="C85" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D85" s="15">
-        <v>7</v>
-      </c>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-    </row>
-    <row r="86" spans="3:8" s="14" customFormat="1">
-      <c r="C86" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D86" s="15">
-        <v>8</v>
-      </c>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-    </row>
-    <row r="87" spans="3:8" s="14" customFormat="1">
-      <c r="C87" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D87" s="15">
-        <v>9</v>
-      </c>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-    </row>
-    <row r="88" spans="3:8" s="14" customFormat="1">
-      <c r="C88" s="14">
-        <v>9807</v>
-      </c>
-      <c r="D88" s="15">
-        <v>10</v>
-      </c>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-    </row>
-    <row r="89" spans="3:8" s="14" customFormat="1">
-      <c r="D89" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="27" t="e">
-        <f>AVERAGE(E79:E88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F89" s="27" t="e">
-        <f t="shared" ref="F89:H89" si="12">AVERAGE(F79:F88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G89" s="27" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H89" s="27" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="90" spans="3:8" s="14" customFormat="1">
-      <c r="D90" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="27" t="e">
-        <f>STDEV(E79:E88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F90" s="27" t="e">
-        <f t="shared" ref="F90:H90" si="13">STDEV(F79:F88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G90" s="27" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H90" s="27" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="E83" s="27">
+        <f>STDEV(E73:E81)</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="27">
+        <f>STDEV(F73:F81)</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="27">
+        <f>STDEV(G73:G81)</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="27">
+        <f>STDEV(H73:H81)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/final_samples_data.xlsx
+++ b/final_samples_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14580" tabRatio="801" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14580" tabRatio="801" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="39.75 mol%" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="29">
   <si>
     <t>Load</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>down</t>
-  </si>
-  <si>
-    <t>weird one</t>
   </si>
   <si>
     <t>Time: 21 June 4:50 PM started, finished 6:20 PM</t>
@@ -108,12 +105,21 @@
   <si>
     <t>Sum</t>
   </si>
+  <si>
+    <t>obscured</t>
+  </si>
+  <si>
+    <t>Imaged 28 June 9:30 AM started, finished 11:15 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imaged 28 June 11:20 AM started, finished </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +164,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,7 +246,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -284,8 +304,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -327,8 +381,10 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -357,6 +413,23 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -385,6 +458,23 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2034,10 +2124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L97"/>
+  <dimension ref="B2:M97"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2054,17 +2144,20 @@
     <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="E5" s="28" t="s">
         <v>6</v>
       </c>
@@ -2078,7 +2171,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="2:12" s="1" customFormat="1">
+    <row r="6" spans="2:13" s="1" customFormat="1">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +2203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:12" s="2" customFormat="1">
+    <row r="7" spans="2:13" s="2" customFormat="1">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2132,8 +2225,20 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" s="2" customFormat="1">
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" s="2" customFormat="1">
       <c r="C8" s="2">
         <v>245.2</v>
       </c>
@@ -2152,8 +2257,20 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" s="2" customFormat="1">
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" s="2" customFormat="1">
       <c r="C9" s="2">
         <v>245.2</v>
       </c>
@@ -2172,8 +2289,20 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" s="2" customFormat="1">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" s="2" customFormat="1">
       <c r="C10" s="2">
         <v>245.2</v>
       </c>
@@ -2192,8 +2321,20 @@
       <c r="H10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" s="2" customFormat="1">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" s="2" customFormat="1">
       <c r="C11" s="2">
         <v>245.2</v>
       </c>
@@ -2212,8 +2353,20 @@
       <c r="H11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" s="2" customFormat="1">
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" s="2" customFormat="1">
       <c r="C12" s="2">
         <v>245.2</v>
       </c>
@@ -2232,8 +2385,20 @@
       <c r="H12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" s="2" customFormat="1">
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" s="2" customFormat="1">
       <c r="C13" s="2">
         <v>245.2</v>
       </c>
@@ -2252,8 +2417,20 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" s="2" customFormat="1">
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" s="2" customFormat="1">
       <c r="C14" s="2">
         <v>245.2</v>
       </c>
@@ -2272,8 +2449,11 @@
       <c r="H14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" s="2" customFormat="1">
+      <c r="M14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" s="2" customFormat="1">
       <c r="C15" s="2">
         <v>245.2</v>
       </c>
@@ -2292,8 +2472,20 @@
       <c r="H15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" s="2" customFormat="1">
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" s="2" customFormat="1">
       <c r="C16" s="2">
         <v>245.2</v>
       </c>
@@ -2312,10 +2504,22 @@
       <c r="H16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" s="3" customFormat="1">
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="21">
         <f>SUM(E7:E16)/40</f>
@@ -2323,11 +2527,17 @@
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="2:8" s="3" customFormat="1">
+      <c r="H17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="21">
+        <f>SUM(I7:I16)/40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="3" customFormat="1">
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="21">
         <f>SUM(E7:F16)/10</f>
@@ -2335,9 +2545,15 @@
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="2:8" s="3" customFormat="1">
+      <c r="H18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="21">
+        <f>SUM(I7:J16)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="3" customFormat="1">
       <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2347,9 +2563,15 @@
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="2:8" s="4" customFormat="1">
+      <c r="H19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="21">
+        <f>STDEV(I7:I16)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="4" customFormat="1">
       <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
@@ -2371,8 +2593,20 @@
       <c r="H20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" s="4" customFormat="1">
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="4" customFormat="1">
       <c r="C21" s="4">
         <v>490.3</v>
       </c>
@@ -2391,8 +2625,20 @@
       <c r="H21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" s="4" customFormat="1">
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="4" customFormat="1">
       <c r="C22" s="4">
         <v>490.3</v>
       </c>
@@ -2411,8 +2657,20 @@
       <c r="H22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" s="4" customFormat="1">
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="4" customFormat="1">
       <c r="C23" s="4">
         <v>490.3</v>
       </c>
@@ -2431,8 +2689,20 @@
       <c r="H23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" s="4" customFormat="1">
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="4" customFormat="1">
       <c r="C24" s="4">
         <v>490.3</v>
       </c>
@@ -2451,8 +2721,20 @@
       <c r="H24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" s="4" customFormat="1">
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="4" customFormat="1">
       <c r="C25" s="4">
         <v>490.3</v>
       </c>
@@ -2471,8 +2753,20 @@
       <c r="H25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" s="4" customFormat="1">
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="4" customFormat="1">
       <c r="C26" s="4">
         <v>490.3</v>
       </c>
@@ -2491,8 +2785,20 @@
       <c r="H26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" s="4" customFormat="1">
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="4" customFormat="1">
       <c r="C27" s="4">
         <v>490.3</v>
       </c>
@@ -2511,8 +2817,20 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" s="4" customFormat="1">
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="4" customFormat="1">
       <c r="C28" s="4">
         <v>490.3</v>
       </c>
@@ -2531,8 +2849,20 @@
       <c r="H28" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" s="4" customFormat="1">
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="4" customFormat="1">
       <c r="C29" s="4">
         <v>490.3</v>
       </c>
@@ -2551,10 +2881,22 @@
       <c r="H29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" s="5" customFormat="1">
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="5" customFormat="1">
       <c r="D30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="20">
         <f>SUM(E20:E29)/40</f>
@@ -2562,11 +2904,17 @@
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="2:8" s="5" customFormat="1">
+      <c r="H30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="20">
+        <f>SUM(I20:I29)/40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" s="5" customFormat="1">
       <c r="D31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="20">
         <f>SUM(E20:F29)/10</f>
@@ -2574,9 +2922,15 @@
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="2:8" s="5" customFormat="1">
+      <c r="H31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="20">
+        <f>SUM(I20:J29)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" s="5" customFormat="1">
       <c r="D32" s="5" t="s">
         <v>8</v>
       </c>
@@ -2586,9 +2940,15 @@
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="2:8" s="6" customFormat="1">
+      <c r="H32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="20">
+        <f>STDEV(I20:I29)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" s="6" customFormat="1">
       <c r="B33" s="6" t="s">
         <v>9</v>
       </c>
@@ -2610,8 +2970,20 @@
       <c r="H33" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" s="6" customFormat="1">
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" s="6" customFormat="1">
       <c r="C34" s="6">
         <v>980.7</v>
       </c>
@@ -2630,8 +3002,20 @@
       <c r="H34" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" s="6" customFormat="1">
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" s="6" customFormat="1">
       <c r="C35" s="6">
         <v>980.7</v>
       </c>
@@ -2650,8 +3034,20 @@
       <c r="H35" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" s="6" customFormat="1">
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" s="6" customFormat="1">
       <c r="C36" s="6">
         <v>980.7</v>
       </c>
@@ -2670,8 +3066,20 @@
       <c r="H36" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" s="6" customFormat="1">
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" s="6" customFormat="1">
       <c r="C37" s="6">
         <v>980.7</v>
       </c>
@@ -2690,8 +3098,20 @@
       <c r="H37" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" s="6" customFormat="1">
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" s="6" customFormat="1">
       <c r="C38" s="6">
         <v>980.7</v>
       </c>
@@ -2710,8 +3130,20 @@
       <c r="H38" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" s="6" customFormat="1">
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" s="6" customFormat="1">
       <c r="C39" s="6">
         <v>980.7</v>
       </c>
@@ -2730,8 +3162,20 @@
       <c r="H39" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" s="6" customFormat="1">
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" s="6" customFormat="1">
       <c r="C40" s="6">
         <v>980.7</v>
       </c>
@@ -2750,8 +3194,20 @@
       <c r="H40" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" s="6" customFormat="1">
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" s="6" customFormat="1">
       <c r="C41" s="6">
         <v>980.7</v>
       </c>
@@ -2770,8 +3226,20 @@
       <c r="H41" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" s="6" customFormat="1">
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" s="6" customFormat="1">
       <c r="C42" s="6">
         <v>980.7</v>
       </c>
@@ -2790,10 +3258,22 @@
       <c r="H42" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" s="16" customFormat="1">
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" s="16" customFormat="1">
       <c r="D43" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="19">
         <f>SUM(E33:E42)/40</f>
@@ -2801,11 +3281,17 @@
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-    </row>
-    <row r="44" spans="2:8" s="16" customFormat="1">
+      <c r="H43" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="19">
+        <f>SUM(I33:I42)/40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" s="16" customFormat="1">
       <c r="D44" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="19">
         <f>SUM(E33:F42)/10</f>
@@ -2813,9 +3299,15 @@
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-    </row>
-    <row r="45" spans="2:8" s="16" customFormat="1">
+      <c r="H44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="19">
+        <f>SUM(I33:J42)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" s="16" customFormat="1">
       <c r="D45" s="16" t="s">
         <v>8</v>
       </c>
@@ -2825,9 +3317,15 @@
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-    </row>
-    <row r="46" spans="2:8" s="8" customFormat="1">
+      <c r="H45" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="19">
+        <f>STDEV(I33:I42)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" s="8" customFormat="1">
       <c r="B46" s="8" t="s">
         <v>10</v>
       </c>
@@ -2849,8 +3347,20 @@
       <c r="H46" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" s="8" customFormat="1">
+      <c r="I46" s="8">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0</v>
+      </c>
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" s="8" customFormat="1">
       <c r="C47" s="8">
         <v>1961</v>
       </c>
@@ -2869,8 +3379,20 @@
       <c r="H47" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" s="8" customFormat="1">
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
+        <v>5</v>
+      </c>
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" s="8" customFormat="1">
       <c r="C48" s="8">
         <v>1961</v>
       </c>
@@ -2889,8 +3411,20 @@
       <c r="H48" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" s="8" customFormat="1">
+      <c r="I48" s="8">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0</v>
+      </c>
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" s="8" customFormat="1">
       <c r="C49" s="8">
         <v>1961</v>
       </c>
@@ -2909,8 +3443,20 @@
       <c r="H49" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" s="8" customFormat="1">
+      <c r="I49" s="8">
+        <v>1</v>
+      </c>
+      <c r="J49" s="8">
+        <v>4</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" s="8" customFormat="1">
       <c r="C50" s="8">
         <v>1961</v>
       </c>
@@ -2929,8 +3475,20 @@
       <c r="H50" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" s="8" customFormat="1">
+      <c r="I50" s="8">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" s="8" customFormat="1">
       <c r="C51" s="8">
         <v>1961</v>
       </c>
@@ -2949,8 +3507,20 @@
       <c r="H51" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" s="8" customFormat="1">
+      <c r="I51" s="8">
+        <v>1</v>
+      </c>
+      <c r="J51" s="8">
+        <v>2</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" s="8" customFormat="1">
       <c r="C52" s="8">
         <v>1961</v>
       </c>
@@ -2969,8 +3539,20 @@
       <c r="H52" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" s="8" customFormat="1">
+      <c r="I52" s="8">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" s="8" customFormat="1">
       <c r="C53" s="8">
         <v>1961</v>
       </c>
@@ -2989,8 +3571,20 @@
       <c r="H53" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" s="8" customFormat="1">
+      <c r="I53" s="8">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0</v>
+      </c>
+      <c r="K53" s="8">
+        <v>0</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" s="8" customFormat="1">
       <c r="C54" s="8">
         <v>1961</v>
       </c>
@@ -3009,8 +3603,20 @@
       <c r="H54" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" s="8" customFormat="1">
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" s="8" customFormat="1">
       <c r="C55" s="8">
         <v>1961</v>
       </c>
@@ -3029,10 +3635,22 @@
       <c r="H55" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" s="8" customFormat="1">
+      <c r="I55" s="8">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" s="8" customFormat="1">
       <c r="D56" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E46:E55)/40</f>
@@ -3040,11 +3658,17 @@
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="2:8" s="8" customFormat="1">
+      <c r="H56" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="18">
+        <f>SUM(I46:I55)/40</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" s="8" customFormat="1">
       <c r="D57" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57" s="18">
         <f>SUM(E46:F55)/10</f>
@@ -3052,9 +3676,15 @@
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-    </row>
-    <row r="58" spans="2:8" s="8" customFormat="1">
+      <c r="H57" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="18">
+        <f>SUM(I46:J55)/10</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" s="8" customFormat="1">
       <c r="D58" s="17" t="s">
         <v>8</v>
       </c>
@@ -3064,9 +3694,15 @@
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-    </row>
-    <row r="59" spans="2:8" s="10" customFormat="1">
+      <c r="H58" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="18">
+        <f>STDEV(I46:I55)/4</f>
+        <v>0.10540925533894598</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" s="10" customFormat="1">
       <c r="B59" s="10" t="s">
         <v>9</v>
       </c>
@@ -3088,8 +3724,20 @@
       <c r="H59" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" s="10" customFormat="1">
+      <c r="I59" s="10">
+        <v>1</v>
+      </c>
+      <c r="J59" s="10">
+        <v>3</v>
+      </c>
+      <c r="K59" s="10">
+        <v>0</v>
+      </c>
+      <c r="L59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" s="10" customFormat="1">
       <c r="C60" s="10">
         <v>2942</v>
       </c>
@@ -3108,8 +3756,20 @@
       <c r="H60" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" s="10" customFormat="1">
+      <c r="I60" s="10">
+        <v>0</v>
+      </c>
+      <c r="J60" s="10">
+        <v>0</v>
+      </c>
+      <c r="K60" s="10">
+        <v>0</v>
+      </c>
+      <c r="L60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" s="10" customFormat="1">
       <c r="C61" s="10">
         <v>2942</v>
       </c>
@@ -3128,8 +3788,20 @@
       <c r="H61" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" s="10" customFormat="1">
+      <c r="I61" s="10">
+        <v>0</v>
+      </c>
+      <c r="J61" s="10">
+        <v>7</v>
+      </c>
+      <c r="K61" s="10">
+        <v>0</v>
+      </c>
+      <c r="L61" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" s="10" customFormat="1">
       <c r="C62" s="10">
         <v>2942</v>
       </c>
@@ -3148,8 +3820,20 @@
       <c r="H62" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" s="10" customFormat="1">
+      <c r="I62" s="10">
+        <v>1</v>
+      </c>
+      <c r="J62" s="10">
+        <v>4</v>
+      </c>
+      <c r="K62" s="10">
+        <v>0</v>
+      </c>
+      <c r="L62" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" s="10" customFormat="1">
       <c r="C63" s="10">
         <v>2942</v>
       </c>
@@ -3168,8 +3852,20 @@
       <c r="H63" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" s="10" customFormat="1">
+      <c r="I63" s="10">
+        <v>0</v>
+      </c>
+      <c r="J63" s="10">
+        <v>0</v>
+      </c>
+      <c r="K63" s="10">
+        <v>0</v>
+      </c>
+      <c r="L63" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" s="10" customFormat="1">
       <c r="C64" s="10">
         <v>2942</v>
       </c>
@@ -3188,8 +3884,20 @@
       <c r="H64" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" s="10" customFormat="1">
+      <c r="I64" s="10">
+        <v>0</v>
+      </c>
+      <c r="J64" s="10">
+        <v>0</v>
+      </c>
+      <c r="K64" s="10">
+        <v>0</v>
+      </c>
+      <c r="L64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" s="10" customFormat="1">
       <c r="C65" s="10">
         <v>2942</v>
       </c>
@@ -3208,8 +3916,20 @@
       <c r="H65" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" s="10" customFormat="1">
+      <c r="I65" s="10">
+        <v>0</v>
+      </c>
+      <c r="J65" s="10">
+        <v>3</v>
+      </c>
+      <c r="K65" s="10">
+        <v>0</v>
+      </c>
+      <c r="L65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" s="10" customFormat="1">
       <c r="C66" s="10">
         <v>2942</v>
       </c>
@@ -3228,8 +3948,20 @@
       <c r="H66" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" s="10" customFormat="1">
+      <c r="I66" s="10">
+        <v>2</v>
+      </c>
+      <c r="J66" s="10">
+        <v>1</v>
+      </c>
+      <c r="K66" s="10">
+        <v>0</v>
+      </c>
+      <c r="L66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" s="10" customFormat="1">
       <c r="C67" s="10">
         <v>2942</v>
       </c>
@@ -3248,8 +3980,20 @@
       <c r="H67" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" s="10" customFormat="1">
+      <c r="I67" s="10">
+        <v>1</v>
+      </c>
+      <c r="J67" s="10">
+        <v>4</v>
+      </c>
+      <c r="K67" s="10">
+        <v>0</v>
+      </c>
+      <c r="L67" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" s="10" customFormat="1">
       <c r="C68" s="10">
         <v>2942</v>
       </c>
@@ -3268,10 +4012,22 @@
       <c r="H68" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" s="10" customFormat="1">
+      <c r="I68" s="10">
+        <v>1</v>
+      </c>
+      <c r="J68" s="10">
+        <v>7</v>
+      </c>
+      <c r="K68" s="10">
+        <v>0</v>
+      </c>
+      <c r="L68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" s="10" customFormat="1">
       <c r="D69" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69" s="23">
         <f>SUM(E59:E68)/40</f>
@@ -3279,11 +4035,17 @@
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-    </row>
-    <row r="70" spans="2:9" s="10" customFormat="1">
+      <c r="H69" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="23">
+        <f>SUM(I59:I68)/40</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" s="10" customFormat="1">
       <c r="D70" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70" s="23">
         <f>SUM(E59:F68)/10</f>
@@ -3291,9 +4053,15 @@
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-    </row>
-    <row r="71" spans="2:9" s="10" customFormat="1">
+      <c r="H70" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="23">
+        <f>SUM(I59:J68)/10</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" s="10" customFormat="1">
       <c r="D71" s="22" t="s">
         <v>8</v>
       </c>
@@ -3303,9 +4071,15 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-    </row>
-    <row r="72" spans="2:9" s="12" customFormat="1">
+      <c r="H71" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="23">
+        <f>STDEV(I59:I68)/4</f>
+        <v>0.17480147469502527</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" s="12" customFormat="1">
       <c r="B72" s="12" t="s">
         <v>10</v>
       </c>
@@ -3327,8 +4101,20 @@
       <c r="H72" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" s="12" customFormat="1">
+      <c r="I72" s="12">
+        <v>2</v>
+      </c>
+      <c r="J72" s="12">
+        <v>4</v>
+      </c>
+      <c r="K72" s="12">
+        <v>0</v>
+      </c>
+      <c r="L72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" s="12" customFormat="1">
       <c r="C73" s="12">
         <v>4903</v>
       </c>
@@ -3347,8 +4133,20 @@
       <c r="H73" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" s="12" customFormat="1">
+      <c r="I73" s="12">
+        <v>1</v>
+      </c>
+      <c r="J73" s="12">
+        <v>3</v>
+      </c>
+      <c r="K73" s="12">
+        <v>0</v>
+      </c>
+      <c r="L73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" s="12" customFormat="1">
       <c r="C74" s="12">
         <v>4903</v>
       </c>
@@ -3367,31 +4165,52 @@
       <c r="H74" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" s="12" customFormat="1">
+      <c r="I74" s="12">
+        <v>0</v>
+      </c>
+      <c r="J74" s="12">
+        <v>0</v>
+      </c>
+      <c r="K74" s="12">
+        <v>0</v>
+      </c>
+      <c r="L74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" s="12" customFormat="1">
       <c r="C75" s="12">
         <v>4903</v>
       </c>
       <c r="D75" s="13">
         <v>4</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="39">
         <v>2</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="39">
         <v>1</v>
       </c>
-      <c r="G75" s="13">
-        <v>0</v>
-      </c>
-      <c r="H75" s="13">
-        <v>0</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" s="12" customFormat="1">
+      <c r="G75" s="39">
+        <v>0</v>
+      </c>
+      <c r="H75" s="39">
+        <v>0</v>
+      </c>
+      <c r="I75" s="40">
+        <v>3</v>
+      </c>
+      <c r="J75" s="40">
+        <v>0</v>
+      </c>
+      <c r="K75" s="40">
+        <v>0</v>
+      </c>
+      <c r="L75" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" s="12" customFormat="1">
       <c r="C76" s="12">
         <v>4903</v>
       </c>
@@ -3410,8 +4229,20 @@
       <c r="H76" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" s="12" customFormat="1">
+      <c r="I76" s="12">
+        <v>4</v>
+      </c>
+      <c r="J76" s="12">
+        <v>1</v>
+      </c>
+      <c r="K76" s="12">
+        <v>0</v>
+      </c>
+      <c r="L76" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" s="12" customFormat="1">
       <c r="C77" s="12">
         <v>4903</v>
       </c>
@@ -3430,8 +4261,20 @@
       <c r="H77" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" s="12" customFormat="1">
+      <c r="I77" s="12">
+        <v>3</v>
+      </c>
+      <c r="J77" s="12">
+        <v>4</v>
+      </c>
+      <c r="K77" s="12">
+        <v>0</v>
+      </c>
+      <c r="L77" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" s="12" customFormat="1">
       <c r="C78" s="12">
         <v>4903</v>
       </c>
@@ -3450,8 +4293,20 @@
       <c r="H78" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" s="12" customFormat="1">
+      <c r="I78" s="12">
+        <v>1</v>
+      </c>
+      <c r="J78" s="12">
+        <v>4</v>
+      </c>
+      <c r="K78" s="12">
+        <v>0</v>
+      </c>
+      <c r="L78" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" s="12" customFormat="1">
       <c r="C79" s="12">
         <v>4903</v>
       </c>
@@ -3470,8 +4325,20 @@
       <c r="H79" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" s="12" customFormat="1">
+      <c r="I79" s="12">
+        <v>2</v>
+      </c>
+      <c r="J79" s="12">
+        <v>4</v>
+      </c>
+      <c r="K79" s="12">
+        <v>0</v>
+      </c>
+      <c r="L79" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" s="12" customFormat="1">
       <c r="C80" s="12">
         <v>4903</v>
       </c>
@@ -3490,8 +4357,20 @@
       <c r="H80" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" s="12" customFormat="1">
+      <c r="I80" s="12">
+        <v>3</v>
+      </c>
+      <c r="J80" s="12">
+        <v>4</v>
+      </c>
+      <c r="K80" s="12">
+        <v>0</v>
+      </c>
+      <c r="L80" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" s="12" customFormat="1">
       <c r="C81" s="12">
         <v>4903</v>
       </c>
@@ -3510,10 +4389,22 @@
       <c r="H81" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" s="12" customFormat="1">
+      <c r="I81" s="12">
+        <v>2</v>
+      </c>
+      <c r="J81" s="12">
+        <v>4</v>
+      </c>
+      <c r="K81" s="12">
+        <v>0</v>
+      </c>
+      <c r="L81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" s="12" customFormat="1">
       <c r="D82" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E82" s="25">
         <f>SUM(E72:E81)/40</f>
@@ -3521,11 +4412,17 @@
       </c>
       <c r="F82" s="25"/>
       <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-    </row>
-    <row r="83" spans="2:8" s="12" customFormat="1">
+      <c r="H82" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="25">
+        <f>SUM(I72:I81)/40</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" s="12" customFormat="1">
       <c r="D83" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E83" s="25">
         <f>SUM(E72:F81)/10</f>
@@ -3533,9 +4430,15 @@
       </c>
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-    </row>
-    <row r="84" spans="2:8" s="12" customFormat="1">
+      <c r="H83" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" s="25">
+        <f>SUM(I72:J81)/10</f>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" s="12" customFormat="1">
       <c r="D84" s="24" t="s">
         <v>8</v>
       </c>
@@ -3545,9 +4448,15 @@
       </c>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-    </row>
-    <row r="85" spans="2:8" s="14" customFormat="1">
+      <c r="H84" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="25">
+        <f>STDEV(I72:I81)/4</f>
+        <v>0.29930474993446615</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" s="14" customFormat="1">
       <c r="B85" s="14" t="s">
         <v>9</v>
       </c>
@@ -3569,8 +4478,20 @@
       <c r="H85" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" s="14" customFormat="1">
+      <c r="I85" s="14">
+        <v>1</v>
+      </c>
+      <c r="J85" s="14">
+        <v>8</v>
+      </c>
+      <c r="K85" s="14">
+        <v>0</v>
+      </c>
+      <c r="L85" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" s="14" customFormat="1">
       <c r="C86" s="14">
         <v>9807</v>
       </c>
@@ -3589,8 +4510,20 @@
       <c r="H86" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" s="14" customFormat="1">
+      <c r="I86" s="14">
+        <v>2</v>
+      </c>
+      <c r="J86" s="14">
+        <v>5</v>
+      </c>
+      <c r="K86" s="14">
+        <v>0</v>
+      </c>
+      <c r="L86" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" s="14" customFormat="1">
       <c r="C87" s="14">
         <v>9807</v>
       </c>
@@ -3609,8 +4542,20 @@
       <c r="H87" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" s="14" customFormat="1">
+      <c r="I87" s="14">
+        <v>1</v>
+      </c>
+      <c r="J87" s="14">
+        <v>6</v>
+      </c>
+      <c r="K87" s="14">
+        <v>0</v>
+      </c>
+      <c r="L87" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" s="14" customFormat="1">
       <c r="C88" s="14">
         <v>9807</v>
       </c>
@@ -3629,8 +4574,20 @@
       <c r="H88" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" s="14" customFormat="1">
+      <c r="I88" s="14">
+        <v>1</v>
+      </c>
+      <c r="J88" s="14">
+        <v>6</v>
+      </c>
+      <c r="K88" s="14">
+        <v>0</v>
+      </c>
+      <c r="L88" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" s="14" customFormat="1">
       <c r="C89" s="14">
         <v>9807</v>
       </c>
@@ -3649,8 +4606,20 @@
       <c r="H89" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" s="14" customFormat="1">
+      <c r="I89" s="14">
+        <v>1</v>
+      </c>
+      <c r="J89" s="14">
+        <v>7</v>
+      </c>
+      <c r="K89" s="14">
+        <v>0</v>
+      </c>
+      <c r="L89" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" s="14" customFormat="1">
       <c r="C90" s="14">
         <v>9807</v>
       </c>
@@ -3669,8 +4638,20 @@
       <c r="H90" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" s="14" customFormat="1">
+      <c r="I90" s="14">
+        <v>3</v>
+      </c>
+      <c r="J90" s="14">
+        <v>3</v>
+      </c>
+      <c r="K90" s="14">
+        <v>0</v>
+      </c>
+      <c r="L90" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" s="14" customFormat="1">
       <c r="C91" s="14">
         <v>9807</v>
       </c>
@@ -3689,8 +4670,20 @@
       <c r="H91" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" s="14" customFormat="1">
+      <c r="I91" s="14">
+        <v>3</v>
+      </c>
+      <c r="J91" s="14">
+        <v>5</v>
+      </c>
+      <c r="K91" s="14">
+        <v>0</v>
+      </c>
+      <c r="L91" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" s="14" customFormat="1">
       <c r="C92" s="14">
         <v>9807</v>
       </c>
@@ -3709,8 +4702,20 @@
       <c r="H92" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" s="14" customFormat="1">
+      <c r="I92" s="14">
+        <v>0</v>
+      </c>
+      <c r="J92" s="14">
+        <v>11</v>
+      </c>
+      <c r="K92" s="14">
+        <v>0</v>
+      </c>
+      <c r="L92" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" s="14" customFormat="1">
       <c r="C93" s="14">
         <v>9807</v>
       </c>
@@ -3729,8 +4734,20 @@
       <c r="H93" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" s="14" customFormat="1">
+      <c r="I93" s="14">
+        <v>4</v>
+      </c>
+      <c r="J93" s="14">
+        <v>2</v>
+      </c>
+      <c r="K93" s="14">
+        <v>0</v>
+      </c>
+      <c r="L93" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" s="14" customFormat="1">
       <c r="C94" s="14">
         <v>9807</v>
       </c>
@@ -3749,10 +4766,22 @@
       <c r="H94" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" s="14" customFormat="1">
+      <c r="I94" s="14">
+        <v>4</v>
+      </c>
+      <c r="J94" s="14">
+        <v>2</v>
+      </c>
+      <c r="K94" s="14">
+        <v>0</v>
+      </c>
+      <c r="L94" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" s="14" customFormat="1">
       <c r="D95" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E95" s="27">
         <f>SUM(E85:E94)/40</f>
@@ -3760,11 +4789,17 @@
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-    </row>
-    <row r="96" spans="2:8" s="14" customFormat="1">
+      <c r="H95" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" s="27">
+        <f>SUM(I85:I94)/40</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" s="14" customFormat="1">
       <c r="D96" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E96" s="27">
         <f>SUM(E85:F94)/10</f>
@@ -3772,9 +4807,15 @@
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-    </row>
-    <row r="97" spans="4:8" s="14" customFormat="1">
+      <c r="H96" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" s="27">
+        <f>SUM(I85:J94)/10</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="97" spans="4:9" s="14" customFormat="1">
       <c r="D97" s="26" t="s">
         <v>8</v>
       </c>
@@ -3784,7 +4825,13 @@
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
+      <c r="H97" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="27">
+        <f>STDEV(I85:I94)/4</f>
+        <v>0.35355339059327379</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3805,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="C80" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3825,17 +4872,20 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -3906,6 +4956,18 @@
       <c r="H7" s="2">
         <v>0</v>
       </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:12" s="2" customFormat="1">
       <c r="C8" s="2">
@@ -3926,6 +4988,18 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:12" s="2" customFormat="1">
       <c r="C9" s="2">
@@ -3946,6 +5020,18 @@
       <c r="H9" s="2">
         <v>0</v>
       </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="2:12" s="2" customFormat="1">
       <c r="C10" s="2">
@@ -3966,6 +5052,18 @@
       <c r="H10" s="2">
         <v>0</v>
       </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="2:12" s="2" customFormat="1">
       <c r="C11" s="2">
@@ -3986,6 +5084,18 @@
       <c r="H11" s="2">
         <v>0</v>
       </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:12" s="2" customFormat="1">
       <c r="C12" s="2">
@@ -4006,6 +5116,18 @@
       <c r="H12" s="2">
         <v>0</v>
       </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:12" s="2" customFormat="1">
       <c r="C13" s="2">
@@ -4026,6 +5148,18 @@
       <c r="H13" s="2">
         <v>0</v>
       </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:12" s="2" customFormat="1">
       <c r="C14" s="2">
@@ -4046,6 +5180,18 @@
       <c r="H14" s="2">
         <v>0</v>
       </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:12" s="2" customFormat="1">
       <c r="C15" s="2">
@@ -4066,6 +5212,18 @@
       <c r="H15" s="2">
         <v>0</v>
       </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:12" s="2" customFormat="1">
       <c r="C16" s="2">
@@ -4086,10 +5244,22 @@
       <c r="H16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" s="3" customFormat="1">
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="21">
         <f>SUM(E7:E16)/40</f>
@@ -4097,11 +5267,17 @@
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="2:8" s="3" customFormat="1">
+      <c r="H17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="21">
+        <f>SUM(I7:I16)/40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="3" customFormat="1">
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="21">
         <f>SUM(E7:F16)/10</f>
@@ -4109,9 +5285,15 @@
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="2:8" s="3" customFormat="1">
+      <c r="H18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="21">
+        <f>SUM(I7:J16)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="3" customFormat="1">
       <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
@@ -4121,9 +5303,15 @@
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="2:8" s="4" customFormat="1">
+      <c r="H19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="21">
+        <f>STDEV(I7:I16)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="4" customFormat="1">
       <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
@@ -4145,8 +5333,20 @@
       <c r="H20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" s="4" customFormat="1">
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="4" customFormat="1">
       <c r="C21" s="4">
         <v>490.3</v>
       </c>
@@ -4165,8 +5365,20 @@
       <c r="H21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" s="4" customFormat="1">
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="4" customFormat="1">
       <c r="C22" s="4">
         <v>490.3</v>
       </c>
@@ -4185,8 +5397,20 @@
       <c r="H22" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" s="4" customFormat="1">
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="4" customFormat="1">
       <c r="C23" s="4">
         <v>490.3</v>
       </c>
@@ -4205,8 +5429,20 @@
       <c r="H23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" s="4" customFormat="1">
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="4" customFormat="1">
       <c r="C24" s="4">
         <v>490.3</v>
       </c>
@@ -4225,8 +5461,20 @@
       <c r="H24" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" s="4" customFormat="1">
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="4" customFormat="1">
       <c r="C25" s="4">
         <v>490.3</v>
       </c>
@@ -4245,8 +5493,20 @@
       <c r="H25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" s="4" customFormat="1">
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="4" customFormat="1">
       <c r="C26" s="4">
         <v>490.3</v>
       </c>
@@ -4265,8 +5525,20 @@
       <c r="H26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" s="4" customFormat="1">
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="4" customFormat="1">
       <c r="C27" s="4">
         <v>490.3</v>
       </c>
@@ -4285,8 +5557,20 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" s="4" customFormat="1">
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="4" customFormat="1">
       <c r="C28" s="4">
         <v>490.3</v>
       </c>
@@ -4305,8 +5589,20 @@
       <c r="H28" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" s="4" customFormat="1">
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="4" customFormat="1">
       <c r="C29" s="4">
         <v>490.3</v>
       </c>
@@ -4325,10 +5621,22 @@
       <c r="H29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" s="5" customFormat="1">
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="5" customFormat="1">
       <c r="D30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="20">
         <f>SUM(E20:E29)/40</f>
@@ -4336,11 +5644,17 @@
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="2:8" s="5" customFormat="1">
+      <c r="H30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="20">
+        <f>SUM(I20:I29)/40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" s="5" customFormat="1">
       <c r="D31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="20">
         <f>SUM(E20:F29)/10</f>
@@ -4348,9 +5662,15 @@
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="2:8" s="5" customFormat="1">
+      <c r="H31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="20">
+        <f>SUM(I20:J29)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" s="5" customFormat="1">
       <c r="D32" s="5" t="s">
         <v>8</v>
       </c>
@@ -4360,9 +5680,15 @@
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="2:8" s="6" customFormat="1">
+      <c r="H32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="20">
+        <f>STDEV(I20:I29)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" s="6" customFormat="1">
       <c r="B33" s="6" t="s">
         <v>9</v>
       </c>
@@ -4384,8 +5710,20 @@
       <c r="H33" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" s="6" customFormat="1">
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" s="6" customFormat="1">
       <c r="C34" s="6">
         <v>980.7</v>
       </c>
@@ -4404,8 +5742,20 @@
       <c r="H34" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" s="6" customFormat="1">
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" s="6" customFormat="1">
       <c r="C35" s="6">
         <v>980.7</v>
       </c>
@@ -4424,8 +5774,20 @@
       <c r="H35" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" s="6" customFormat="1">
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" s="6" customFormat="1">
       <c r="C36" s="6">
         <v>980.7</v>
       </c>
@@ -4444,8 +5806,20 @@
       <c r="H36" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" s="6" customFormat="1">
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" s="6" customFormat="1">
       <c r="C37" s="6">
         <v>980.7</v>
       </c>
@@ -4464,8 +5838,20 @@
       <c r="H37" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" s="6" customFormat="1">
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" s="6" customFormat="1">
       <c r="C38" s="6">
         <v>980.7</v>
       </c>
@@ -4484,8 +5870,20 @@
       <c r="H38" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" s="6" customFormat="1">
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" s="6" customFormat="1">
       <c r="C39" s="6">
         <v>980.7</v>
       </c>
@@ -4504,8 +5902,20 @@
       <c r="H39" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" s="6" customFormat="1">
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" s="6" customFormat="1">
       <c r="C40" s="6">
         <v>980.7</v>
       </c>
@@ -4524,8 +5934,20 @@
       <c r="H40" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" s="6" customFormat="1">
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" s="6" customFormat="1">
       <c r="C41" s="6">
         <v>980.7</v>
       </c>
@@ -4544,8 +5966,20 @@
       <c r="H41" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" s="6" customFormat="1">
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" s="6" customFormat="1">
       <c r="C42" s="6">
         <v>980.7</v>
       </c>
@@ -4564,10 +5998,22 @@
       <c r="H42" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" s="16" customFormat="1">
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" s="16" customFormat="1">
       <c r="D43" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="19">
         <f>SUM(E33:E42)/40</f>
@@ -4575,11 +6021,17 @@
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-    </row>
-    <row r="44" spans="2:8" s="16" customFormat="1">
+      <c r="H43" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="19">
+        <f>SUM(I33:I42)/40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" s="16" customFormat="1">
       <c r="D44" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="19">
         <f>SUM(E33:F42)/10</f>
@@ -4587,9 +6039,15 @@
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-    </row>
-    <row r="45" spans="2:8" s="16" customFormat="1">
+      <c r="H44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="19">
+        <f>SUM(I33:J42)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" s="16" customFormat="1">
       <c r="D45" s="16" t="s">
         <v>8</v>
       </c>
@@ -4599,9 +6057,15 @@
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-    </row>
-    <row r="46" spans="2:8" s="8" customFormat="1">
+      <c r="H45" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="19">
+        <f>STDEV(I33:I42)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" s="8" customFormat="1">
       <c r="B46" s="8" t="s">
         <v>10</v>
       </c>
@@ -4623,8 +6087,20 @@
       <c r="H46" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" s="8" customFormat="1">
+      <c r="I46" s="8">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0</v>
+      </c>
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" s="8" customFormat="1">
       <c r="C47" s="8">
         <v>1961</v>
       </c>
@@ -4643,8 +6119,20 @@
       <c r="H47" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" s="8" customFormat="1">
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" s="8" customFormat="1">
       <c r="C48" s="8">
         <v>1961</v>
       </c>
@@ -4663,8 +6151,20 @@
       <c r="H48" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" s="8" customFormat="1">
+      <c r="I48" s="8">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0</v>
+      </c>
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" s="8" customFormat="1">
       <c r="C49" s="8">
         <v>1961</v>
       </c>
@@ -4683,8 +6183,20 @@
       <c r="H49" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" s="8" customFormat="1">
+      <c r="I49" s="8">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8">
+        <v>0</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" s="8" customFormat="1">
       <c r="C50" s="8">
         <v>1961</v>
       </c>
@@ -4703,8 +6215,20 @@
       <c r="H50" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" s="8" customFormat="1">
+      <c r="I50" s="8">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" s="8" customFormat="1">
       <c r="C51" s="8">
         <v>1961</v>
       </c>
@@ -4723,8 +6247,20 @@
       <c r="H51" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" s="8" customFormat="1">
+      <c r="I51" s="8">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
+        <v>0</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" s="8" customFormat="1">
       <c r="C52" s="8">
         <v>1961</v>
       </c>
@@ -4743,8 +6279,20 @@
       <c r="H52" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" s="8" customFormat="1">
+      <c r="I52" s="8">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0</v>
+      </c>
+      <c r="K52" s="8">
+        <v>0</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" s="8" customFormat="1">
       <c r="C53" s="8">
         <v>1961</v>
       </c>
@@ -4763,8 +6311,20 @@
       <c r="H53" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" s="8" customFormat="1">
+      <c r="I53" s="8">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0</v>
+      </c>
+      <c r="K53" s="8">
+        <v>0</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" s="8" customFormat="1">
       <c r="C54" s="8">
         <v>1961</v>
       </c>
@@ -4783,8 +6343,20 @@
       <c r="H54" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" s="8" customFormat="1">
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" s="8" customFormat="1">
       <c r="C55" s="8">
         <v>1961</v>
       </c>
@@ -4803,10 +6375,22 @@
       <c r="H55" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" s="8" customFormat="1">
+      <c r="I55" s="8">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" s="8" customFormat="1">
       <c r="D56" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E46:E55)/40</f>
@@ -4814,11 +6398,17 @@
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" spans="2:8" s="8" customFormat="1">
+      <c r="H56" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="18">
+        <f>SUM(I46:I55)/40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" s="8" customFormat="1">
       <c r="D57" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57" s="18">
         <f>SUM(E46:F55)/10</f>
@@ -4826,9 +6416,15 @@
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-    </row>
-    <row r="58" spans="2:8" s="8" customFormat="1">
+      <c r="H57" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="18">
+        <f>SUM(I46:J55)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" s="8" customFormat="1">
       <c r="D58" s="17" t="s">
         <v>8</v>
       </c>
@@ -4838,9 +6434,15 @@
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-    </row>
-    <row r="59" spans="2:8" s="10" customFormat="1">
+      <c r="H58" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="18">
+        <f>STDEV(I46:I55)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" s="10" customFormat="1">
       <c r="B59" s="10" t="s">
         <v>9</v>
       </c>
@@ -4862,8 +6464,20 @@
       <c r="H59" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" s="10" customFormat="1">
+      <c r="I59" s="10">
+        <v>0</v>
+      </c>
+      <c r="J59" s="10">
+        <v>0</v>
+      </c>
+      <c r="K59" s="10">
+        <v>0</v>
+      </c>
+      <c r="L59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" s="10" customFormat="1">
       <c r="C60" s="10">
         <v>2942</v>
       </c>
@@ -4882,8 +6496,20 @@
       <c r="H60" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" s="10" customFormat="1">
+      <c r="I60" s="10">
+        <v>0</v>
+      </c>
+      <c r="J60" s="10">
+        <v>0</v>
+      </c>
+      <c r="K60" s="10">
+        <v>0</v>
+      </c>
+      <c r="L60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" s="10" customFormat="1">
       <c r="C61" s="10">
         <v>2942</v>
       </c>
@@ -4902,8 +6528,20 @@
       <c r="H61" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" s="10" customFormat="1">
+      <c r="I61" s="10">
+        <v>0</v>
+      </c>
+      <c r="J61" s="10">
+        <v>0</v>
+      </c>
+      <c r="K61" s="10">
+        <v>0</v>
+      </c>
+      <c r="L61" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" s="10" customFormat="1">
       <c r="C62" s="10">
         <v>2942</v>
       </c>
@@ -4922,8 +6560,20 @@
       <c r="H62" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" s="10" customFormat="1">
+      <c r="I62" s="10">
+        <v>0</v>
+      </c>
+      <c r="J62" s="10">
+        <v>0</v>
+      </c>
+      <c r="K62" s="10">
+        <v>0</v>
+      </c>
+      <c r="L62" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" s="10" customFormat="1">
       <c r="C63" s="10">
         <v>2942</v>
       </c>
@@ -4942,8 +6592,20 @@
       <c r="H63" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" s="10" customFormat="1">
+      <c r="I63" s="10">
+        <v>0</v>
+      </c>
+      <c r="J63" s="10">
+        <v>0</v>
+      </c>
+      <c r="K63" s="10">
+        <v>0</v>
+      </c>
+      <c r="L63" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" s="10" customFormat="1">
       <c r="C64" s="10">
         <v>2942</v>
       </c>
@@ -4962,8 +6624,20 @@
       <c r="H64" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" s="10" customFormat="1">
+      <c r="I64" s="10">
+        <v>0</v>
+      </c>
+      <c r="J64" s="10">
+        <v>0</v>
+      </c>
+      <c r="K64" s="10">
+        <v>0</v>
+      </c>
+      <c r="L64" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" s="10" customFormat="1">
       <c r="C65" s="10">
         <v>2942</v>
       </c>
@@ -4982,8 +6656,20 @@
       <c r="H65" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" s="10" customFormat="1">
+      <c r="I65" s="10">
+        <v>0</v>
+      </c>
+      <c r="J65" s="10">
+        <v>0</v>
+      </c>
+      <c r="K65" s="10">
+        <v>0</v>
+      </c>
+      <c r="L65" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" s="10" customFormat="1">
       <c r="C66" s="10">
         <v>2942</v>
       </c>
@@ -5002,8 +6688,20 @@
       <c r="H66" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" s="10" customFormat="1">
+      <c r="I66" s="10">
+        <v>0</v>
+      </c>
+      <c r="J66" s="10">
+        <v>0</v>
+      </c>
+      <c r="K66" s="10">
+        <v>0</v>
+      </c>
+      <c r="L66" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" s="10" customFormat="1">
       <c r="C67" s="10">
         <v>2942</v>
       </c>
@@ -5022,8 +6720,20 @@
       <c r="H67" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" s="10" customFormat="1">
+      <c r="I67" s="10">
+        <v>0</v>
+      </c>
+      <c r="J67" s="10">
+        <v>0</v>
+      </c>
+      <c r="K67" s="10">
+        <v>0</v>
+      </c>
+      <c r="L67" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" s="10" customFormat="1">
       <c r="C68" s="10">
         <v>2942</v>
       </c>
@@ -5042,10 +6752,22 @@
       <c r="H68" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" s="10" customFormat="1">
+      <c r="I68" s="10">
+        <v>0</v>
+      </c>
+      <c r="J68" s="10">
+        <v>0</v>
+      </c>
+      <c r="K68" s="10">
+        <v>0</v>
+      </c>
+      <c r="L68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" s="10" customFormat="1">
       <c r="D69" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69" s="23">
         <f>SUM(E59:E68)/40</f>
@@ -5053,11 +6775,17 @@
       </c>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-    </row>
-    <row r="70" spans="2:8" s="10" customFormat="1">
+      <c r="H69" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="23">
+        <f>SUM(I59:I68)/40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" s="10" customFormat="1">
       <c r="D70" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70" s="23">
         <f>SUM(E59:F68)/10</f>
@@ -5065,9 +6793,15 @@
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-    </row>
-    <row r="71" spans="2:8" s="10" customFormat="1">
+      <c r="H70" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="23">
+        <f>SUM(I59:J68)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" s="10" customFormat="1">
       <c r="D71" s="22" t="s">
         <v>8</v>
       </c>
@@ -5077,9 +6811,15 @@
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-    </row>
-    <row r="72" spans="2:8" s="12" customFormat="1">
+      <c r="H71" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="23">
+        <f>STDEV(I59:I68)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" s="12" customFormat="1">
       <c r="B72" s="12" t="s">
         <v>10</v>
       </c>
@@ -5101,8 +6841,20 @@
       <c r="H72" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" s="12" customFormat="1">
+      <c r="I72" s="12">
+        <v>0</v>
+      </c>
+      <c r="J72" s="12">
+        <v>0</v>
+      </c>
+      <c r="K72" s="12">
+        <v>0</v>
+      </c>
+      <c r="L72" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" s="12" customFormat="1">
       <c r="C73" s="12">
         <v>4903</v>
       </c>
@@ -5121,8 +6873,20 @@
       <c r="H73" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" s="12" customFormat="1">
+      <c r="I73" s="12">
+        <v>0</v>
+      </c>
+      <c r="J73" s="12">
+        <v>0</v>
+      </c>
+      <c r="K73" s="12">
+        <v>0</v>
+      </c>
+      <c r="L73" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" s="12" customFormat="1">
       <c r="C74" s="12">
         <v>4903</v>
       </c>
@@ -5141,8 +6905,20 @@
       <c r="H74" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" s="12" customFormat="1">
+      <c r="I74" s="12">
+        <v>0</v>
+      </c>
+      <c r="J74" s="12">
+        <v>0</v>
+      </c>
+      <c r="K74" s="12">
+        <v>0</v>
+      </c>
+      <c r="L74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" s="12" customFormat="1">
       <c r="C75" s="12">
         <v>4903</v>
       </c>
@@ -5161,8 +6937,20 @@
       <c r="H75" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" s="12" customFormat="1">
+      <c r="I75" s="12">
+        <v>0</v>
+      </c>
+      <c r="J75" s="12">
+        <v>0</v>
+      </c>
+      <c r="K75" s="12">
+        <v>0</v>
+      </c>
+      <c r="L75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" s="12" customFormat="1">
       <c r="C76" s="12">
         <v>4903</v>
       </c>
@@ -5181,8 +6969,20 @@
       <c r="H76" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:8" s="12" customFormat="1">
+      <c r="I76" s="12">
+        <v>0</v>
+      </c>
+      <c r="J76" s="12">
+        <v>0</v>
+      </c>
+      <c r="K76" s="12">
+        <v>0</v>
+      </c>
+      <c r="L76" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" s="12" customFormat="1">
       <c r="C77" s="12">
         <v>4903</v>
       </c>
@@ -5201,8 +7001,20 @@
       <c r="H77" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:8" s="12" customFormat="1">
+      <c r="I77" s="12">
+        <v>0</v>
+      </c>
+      <c r="J77" s="12">
+        <v>0</v>
+      </c>
+      <c r="K77" s="12">
+        <v>0</v>
+      </c>
+      <c r="L77" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" s="12" customFormat="1">
       <c r="C78" s="12">
         <v>4903</v>
       </c>
@@ -5221,8 +7033,20 @@
       <c r="H78" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:8" s="12" customFormat="1">
+      <c r="I78" s="12">
+        <v>0</v>
+      </c>
+      <c r="J78" s="12">
+        <v>0</v>
+      </c>
+      <c r="K78" s="12">
+        <v>0</v>
+      </c>
+      <c r="L78" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" s="12" customFormat="1">
       <c r="C79" s="12">
         <v>4903</v>
       </c>
@@ -5241,8 +7065,20 @@
       <c r="H79" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" s="12" customFormat="1">
+      <c r="I79" s="12">
+        <v>0</v>
+      </c>
+      <c r="J79" s="12">
+        <v>0</v>
+      </c>
+      <c r="K79" s="12">
+        <v>0</v>
+      </c>
+      <c r="L79" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" s="12" customFormat="1">
       <c r="C80" s="12">
         <v>4903</v>
       </c>
@@ -5261,8 +7097,20 @@
       <c r="H80" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" s="12" customFormat="1">
+      <c r="I80" s="12">
+        <v>0</v>
+      </c>
+      <c r="J80" s="12">
+        <v>5</v>
+      </c>
+      <c r="K80" s="12">
+        <v>0</v>
+      </c>
+      <c r="L80" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" s="12" customFormat="1">
       <c r="C81" s="12">
         <v>4903</v>
       </c>
@@ -5281,10 +7129,22 @@
       <c r="H81" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" s="12" customFormat="1">
+      <c r="I81" s="12">
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
+        <v>0</v>
+      </c>
+      <c r="K81" s="12">
+        <v>0</v>
+      </c>
+      <c r="L81" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" s="12" customFormat="1">
       <c r="D82" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E82" s="25">
         <f>SUM(E72:E81)/40</f>
@@ -5292,11 +7152,17 @@
       </c>
       <c r="F82" s="25"/>
       <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-    </row>
-    <row r="83" spans="2:8" s="12" customFormat="1">
+      <c r="H82" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="25">
+        <f>SUM(I72:I81)/40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" s="12" customFormat="1">
       <c r="D83" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E83" s="25">
         <f>SUM(E72:F81)/10</f>
@@ -5304,9 +7170,15 @@
       </c>
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-    </row>
-    <row r="84" spans="2:8" s="12" customFormat="1">
+      <c r="H83" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" s="25">
+        <f>SUM(I72:J81)/10</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" s="12" customFormat="1">
       <c r="D84" s="24" t="s">
         <v>8</v>
       </c>
@@ -5316,9 +7188,15 @@
       </c>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-    </row>
-    <row r="85" spans="2:8" s="14" customFormat="1">
+      <c r="H84" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="25">
+        <f>STDEV(I72:I81)/4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" s="14" customFormat="1">
       <c r="B85" s="14" t="s">
         <v>9</v>
       </c>
@@ -5340,8 +7218,20 @@
       <c r="H85" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" s="14" customFormat="1">
+      <c r="I85" s="14">
+        <v>2</v>
+      </c>
+      <c r="J85" s="14">
+        <v>5</v>
+      </c>
+      <c r="K85" s="14">
+        <v>0</v>
+      </c>
+      <c r="L85" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" s="14" customFormat="1">
       <c r="C86" s="14">
         <v>9807</v>
       </c>
@@ -5360,8 +7250,20 @@
       <c r="H86" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" s="14" customFormat="1">
+      <c r="I86" s="14">
+        <v>1</v>
+      </c>
+      <c r="J86" s="14">
+        <v>6</v>
+      </c>
+      <c r="K86" s="14">
+        <v>0</v>
+      </c>
+      <c r="L86" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" s="14" customFormat="1">
       <c r="C87" s="14">
         <v>9807</v>
       </c>
@@ -5380,8 +7282,20 @@
       <c r="H87" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" s="14" customFormat="1">
+      <c r="I87" s="14">
+        <v>2</v>
+      </c>
+      <c r="J87" s="14">
+        <v>6</v>
+      </c>
+      <c r="K87" s="14">
+        <v>0</v>
+      </c>
+      <c r="L87" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" s="14" customFormat="1">
       <c r="C88" s="14">
         <v>9807</v>
       </c>
@@ -5400,8 +7314,20 @@
       <c r="H88" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" s="14" customFormat="1">
+      <c r="I88" s="14">
+        <v>2</v>
+      </c>
+      <c r="J88" s="14">
+        <v>7</v>
+      </c>
+      <c r="K88" s="14">
+        <v>0</v>
+      </c>
+      <c r="L88" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" s="14" customFormat="1">
       <c r="C89" s="14">
         <v>9807</v>
       </c>
@@ -5420,8 +7346,20 @@
       <c r="H89" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" s="14" customFormat="1">
+      <c r="I89" s="14">
+        <v>0</v>
+      </c>
+      <c r="J89" s="14">
+        <v>0</v>
+      </c>
+      <c r="K89" s="14">
+        <v>0</v>
+      </c>
+      <c r="L89" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" s="14" customFormat="1">
       <c r="C90" s="14">
         <v>9807</v>
       </c>
@@ -5440,8 +7378,20 @@
       <c r="H90" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" s="14" customFormat="1">
+      <c r="I90" s="14">
+        <v>0</v>
+      </c>
+      <c r="J90" s="14">
+        <v>9</v>
+      </c>
+      <c r="K90" s="14">
+        <v>0</v>
+      </c>
+      <c r="L90" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" s="14" customFormat="1">
       <c r="C91" s="14">
         <v>9807</v>
       </c>
@@ -5460,8 +7410,20 @@
       <c r="H91" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" s="14" customFormat="1">
+      <c r="I91" s="14">
+        <v>2</v>
+      </c>
+      <c r="J91" s="14">
+        <v>4</v>
+      </c>
+      <c r="K91" s="14">
+        <v>0</v>
+      </c>
+      <c r="L91" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" s="14" customFormat="1">
       <c r="C92" s="14">
         <v>9807</v>
       </c>
@@ -5480,8 +7442,20 @@
       <c r="H92" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" s="14" customFormat="1">
+      <c r="I92" s="14">
+        <v>2</v>
+      </c>
+      <c r="J92" s="14">
+        <v>4</v>
+      </c>
+      <c r="K92" s="14">
+        <v>0</v>
+      </c>
+      <c r="L92" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" s="14" customFormat="1">
       <c r="C93" s="14">
         <v>9807</v>
       </c>
@@ -5500,8 +7474,20 @@
       <c r="H93" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" s="14" customFormat="1">
+      <c r="I93" s="14">
+        <v>0</v>
+      </c>
+      <c r="J93" s="14">
+        <v>0</v>
+      </c>
+      <c r="K93" s="14">
+        <v>0</v>
+      </c>
+      <c r="L93" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" s="14" customFormat="1">
       <c r="C94" s="14">
         <v>9807</v>
       </c>
@@ -5520,10 +7506,22 @@
       <c r="H94" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" s="14" customFormat="1">
+      <c r="I94" s="14">
+        <v>1</v>
+      </c>
+      <c r="J94" s="14">
+        <v>7</v>
+      </c>
+      <c r="K94" s="14">
+        <v>0</v>
+      </c>
+      <c r="L94" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" s="14" customFormat="1">
       <c r="D95" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E95" s="27">
         <f>SUM(E85:E94)/40</f>
@@ -5531,11 +7529,17 @@
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-    </row>
-    <row r="96" spans="2:8" s="14" customFormat="1">
+      <c r="H95" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95" s="27">
+        <f>SUM(I85:I94)/40</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" s="14" customFormat="1">
       <c r="D96" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E96" s="27">
         <f>SUM(E85:F94)/10</f>
@@ -5543,9 +7547,15 @@
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-    </row>
-    <row r="97" spans="4:8" s="14" customFormat="1">
+      <c r="H96" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" s="27">
+        <f>SUM(I85:J94)/10</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="4:9" s="14" customFormat="1">
       <c r="D97" s="26" t="s">
         <v>8</v>
       </c>
@@ -5555,7 +7565,13 @@
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
+      <c r="H97" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="27">
+        <f>STDEV(I85:I94)/4</f>
+        <v>0.22973414586817037</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5596,17 +7612,17 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -5860,7 +7876,7 @@
     </row>
     <row r="17" spans="2:8" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="21">
         <f>SUM(E7:E16)/40</f>
@@ -5872,7 +7888,7 @@
     </row>
     <row r="18" spans="2:8" s="3" customFormat="1">
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="21">
         <f>SUM(E7:F16)/10</f>
@@ -6099,7 +8115,7 @@
     </row>
     <row r="30" spans="2:8" s="5" customFormat="1">
       <c r="D30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="20">
         <f>SUM(E20:E29)/40</f>
@@ -6111,7 +8127,7 @@
     </row>
     <row r="31" spans="2:8" s="5" customFormat="1">
       <c r="D31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="20">
         <f>SUM(E20:F29)/10</f>
@@ -6338,7 +8354,7 @@
     </row>
     <row r="43" spans="2:8" s="16" customFormat="1">
       <c r="D43" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="19">
         <f>SUM(E33:E42)/40</f>
@@ -6350,7 +8366,7 @@
     </row>
     <row r="44" spans="2:8" s="16" customFormat="1">
       <c r="D44" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="19">
         <f>SUM(E33:F42)/10</f>
@@ -6577,7 +8593,7 @@
     </row>
     <row r="56" spans="2:8" s="8" customFormat="1">
       <c r="D56" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E46:E55)/40</f>
@@ -6589,7 +8605,7 @@
     </row>
     <row r="57" spans="2:8" s="8" customFormat="1">
       <c r="D57" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57" s="18">
         <f>SUM(E46:F55)/10</f>
@@ -6816,7 +8832,7 @@
     </row>
     <row r="69" spans="2:8" s="10" customFormat="1">
       <c r="D69" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69" s="23">
         <f>SUM(E59:E68)/40</f>
@@ -6828,7 +8844,7 @@
     </row>
     <row r="70" spans="2:8" s="10" customFormat="1">
       <c r="D70" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70" s="23">
         <f>SUM(E59:F68)/10</f>
@@ -7055,7 +9071,7 @@
     </row>
     <row r="82" spans="2:8" s="12" customFormat="1">
       <c r="D82" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E82" s="25">
         <f>SUM(E72:E81)/40</f>
@@ -7067,7 +9083,7 @@
     </row>
     <row r="83" spans="2:8" s="12" customFormat="1">
       <c r="D83" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E83" s="25">
         <f>SUM(E72:F81)/10</f>
@@ -7294,7 +9310,7 @@
     </row>
     <row r="95" spans="2:8" s="14" customFormat="1">
       <c r="D95" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E95" s="27">
         <f>SUM(E85:E94)/40</f>
@@ -7306,7 +9322,7 @@
     </row>
     <row r="96" spans="2:8" s="14" customFormat="1">
       <c r="D96" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E96" s="27">
         <f>SUM(E85:F94)/10</f>
@@ -7367,17 +9383,17 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -7631,7 +9647,7 @@
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="21">
         <f>SUM(E7:E16)/40</f>
@@ -7646,7 +9662,7 @@
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="31">
         <f>SUM(E7:F16)/10</f>
@@ -7877,7 +9893,7 @@
     </row>
     <row r="30" spans="1:12" s="5" customFormat="1">
       <c r="D30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="20">
         <f>SUM(E20:E29)/40</f>
@@ -7889,7 +9905,7 @@
     </row>
     <row r="31" spans="1:12" s="5" customFormat="1">
       <c r="D31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="20">
         <f>SUM(E20:F29)/10</f>
@@ -8116,7 +10132,7 @@
     </row>
     <row r="43" spans="2:8" s="16" customFormat="1">
       <c r="D43" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="19">
         <f>SUM(E33:E42)/40</f>
@@ -8128,7 +10144,7 @@
     </row>
     <row r="44" spans="2:8" s="16" customFormat="1">
       <c r="D44" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="19">
         <f>SUM(E33:F42)/10</f>
@@ -8355,7 +10371,7 @@
     </row>
     <row r="56" spans="2:8" s="8" customFormat="1">
       <c r="D56" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E46:E55)/40</f>
@@ -8367,7 +10383,7 @@
     </row>
     <row r="57" spans="2:8" s="8" customFormat="1">
       <c r="D57" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57" s="18">
         <f>SUM(E46:F55)/10</f>
@@ -8594,7 +10610,7 @@
     </row>
     <row r="69" spans="2:8" s="10" customFormat="1">
       <c r="D69" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69" s="23">
         <f>SUM(E59:E68)/40</f>
@@ -8606,7 +10622,7 @@
     </row>
     <row r="70" spans="2:8" s="10" customFormat="1">
       <c r="D70" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70" s="23">
         <f>SUM(E59:F68)/10</f>
@@ -8833,7 +10849,7 @@
     </row>
     <row r="82" spans="2:8" s="12" customFormat="1">
       <c r="D82" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E82" s="25">
         <f>SUM(E72:E81)/40</f>
@@ -8845,7 +10861,7 @@
     </row>
     <row r="83" spans="2:8" s="12" customFormat="1">
       <c r="D83" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E83" s="25">
         <f>SUM(E72:F81)/10</f>
@@ -9072,7 +11088,7 @@
     </row>
     <row r="95" spans="2:8" s="14" customFormat="1">
       <c r="D95" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E95" s="27">
         <f>SUM(E85:E94)/40</f>
@@ -9084,7 +11100,7 @@
     </row>
     <row r="96" spans="2:8" s="14" customFormat="1">
       <c r="D96" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E96" s="27">
         <f>SUM(E85:F94)/10</f>
@@ -9145,17 +11161,17 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -9409,7 +11425,7 @@
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="21">
         <f>SUM(E7:E16)/40</f>
@@ -9424,7 +11440,7 @@
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="31">
         <f>SUM(E7:F16)/10</f>
@@ -9655,7 +11671,7 @@
     </row>
     <row r="30" spans="1:12" s="5" customFormat="1">
       <c r="D30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="20">
         <f>SUM(E20:E29)/40</f>
@@ -9667,7 +11683,7 @@
     </row>
     <row r="31" spans="1:12" s="5" customFormat="1">
       <c r="D31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="20">
         <f>SUM(E20:F29)/10</f>
@@ -9894,7 +11910,7 @@
     </row>
     <row r="43" spans="2:8" s="16" customFormat="1">
       <c r="D43" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="19">
         <f>SUM(E33:E42)/40</f>
@@ -9906,7 +11922,7 @@
     </row>
     <row r="44" spans="2:8" s="16" customFormat="1">
       <c r="D44" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="19">
         <f>SUM(E33:F42)/10</f>
@@ -10133,7 +12149,7 @@
     </row>
     <row r="56" spans="2:8" s="8" customFormat="1">
       <c r="D56" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E46:E55)/40</f>
@@ -10145,7 +12161,7 @@
     </row>
     <row r="57" spans="2:8" s="8" customFormat="1">
       <c r="D57" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57" s="18">
         <f>SUM(E46:F55)/10</f>
@@ -10372,7 +12388,7 @@
     </row>
     <row r="69" spans="2:8" s="10" customFormat="1">
       <c r="D69" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69" s="23">
         <f>SUM(E59:E68)/40</f>
@@ -10384,7 +12400,7 @@
     </row>
     <row r="70" spans="2:8" s="10" customFormat="1">
       <c r="D70" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70" s="23">
         <f>SUM(E59:F68)/10</f>
@@ -10611,7 +12627,7 @@
     </row>
     <row r="82" spans="2:8" s="12" customFormat="1">
       <c r="D82" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E82" s="25">
         <f>SUM(E72:E81)/40</f>
@@ -10623,7 +12639,7 @@
     </row>
     <row r="83" spans="2:8" s="12" customFormat="1">
       <c r="D83" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E83" s="25">
         <f>SUM(E72:F81)/10</f>
@@ -10850,7 +12866,7 @@
     </row>
     <row r="95" spans="2:8" s="14" customFormat="1">
       <c r="D95" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E95" s="27">
         <f>SUM(E85:E94)/40</f>
@@ -10862,7 +12878,7 @@
     </row>
     <row r="96" spans="2:8" s="14" customFormat="1">
       <c r="D96" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E96" s="27">
         <f>SUM(E85:F94)/10</f>
@@ -10923,17 +12939,17 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -11187,7 +13203,7 @@
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="21">
         <f>SUM(E7:E16)/40</f>
@@ -11202,7 +13218,7 @@
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="31">
         <f>SUM(E7:F16)/10</f>
@@ -11433,7 +13449,7 @@
     </row>
     <row r="30" spans="1:12" s="5" customFormat="1">
       <c r="D30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="20">
         <f>SUM(E20:E29)/40</f>
@@ -11445,7 +13461,7 @@
     </row>
     <row r="31" spans="1:12" s="5" customFormat="1">
       <c r="D31" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="20">
         <f>SUM(E20:F29)/10</f>
@@ -11672,7 +13688,7 @@
     </row>
     <row r="43" spans="2:8" s="16" customFormat="1">
       <c r="D43" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="19">
         <f>SUM(E33:E42)/40</f>
@@ -11684,7 +13700,7 @@
     </row>
     <row r="44" spans="2:8" s="16" customFormat="1">
       <c r="D44" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="19">
         <f>SUM(E33:F42)/10</f>
@@ -11911,7 +13927,7 @@
     </row>
     <row r="56" spans="2:8" s="8" customFormat="1">
       <c r="D56" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E46:E55)/40</f>
@@ -11923,7 +13939,7 @@
     </row>
     <row r="57" spans="2:8" s="8" customFormat="1">
       <c r="D57" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57" s="18">
         <f>SUM(E46:F55)/10</f>
@@ -12150,7 +14166,7 @@
     </row>
     <row r="69" spans="2:8" s="10" customFormat="1">
       <c r="D69" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E69" s="23">
         <f>SUM(E59:E68)/40</f>
@@ -12162,7 +14178,7 @@
     </row>
     <row r="70" spans="2:8" s="10" customFormat="1">
       <c r="D70" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E70" s="23">
         <f>SUM(E59:F68)/10</f>
@@ -12387,12 +14403,12 @@
         <v>0</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="2:9" s="12" customFormat="1">
       <c r="D82" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E82" s="25">
         <f>SUM(E72:E81)/40</f>
@@ -12404,7 +14420,7 @@
     </row>
     <row r="83" spans="2:9" s="12" customFormat="1">
       <c r="D83" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E83" s="25">
         <f>SUM(E72:F81)/10</f>
@@ -12631,7 +14647,7 @@
     </row>
     <row r="95" spans="2:9" s="14" customFormat="1">
       <c r="D95" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E95" s="27">
         <f>SUM(E85:E94)/40</f>
@@ -12643,7 +14659,7 @@
     </row>
     <row r="96" spans="2:9" s="14" customFormat="1">
       <c r="D96" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E96" s="27">
         <f>SUM(E85:F94)/10</f>
@@ -12704,17 +14720,17 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -12948,7 +14964,7 @@
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1">
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="21">
         <f>SUM(E7:E15)/40</f>
@@ -12960,7 +14976,7 @@
     </row>
     <row r="17" spans="2:8" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="21">
         <f>SUM(E7:F15)/9</f>
@@ -13167,7 +15183,7 @@
     </row>
     <row r="28" spans="2:8" s="5" customFormat="1">
       <c r="D28" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="20">
         <f>SUM(E19:E27)/40</f>
@@ -13179,7 +15195,7 @@
     </row>
     <row r="29" spans="2:8" s="5" customFormat="1">
       <c r="D29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="20">
         <f>SUM(E19:F27)/9</f>
@@ -13386,7 +15402,7 @@
     </row>
     <row r="40" spans="2:8" s="16" customFormat="1">
       <c r="D40" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="19">
         <f>SUM(E31:E39)/40</f>
@@ -13398,7 +15414,7 @@
     </row>
     <row r="41" spans="2:8" s="16" customFormat="1">
       <c r="D41" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" s="19">
         <f>SUM(E31:F39)/9</f>
@@ -13605,7 +15621,7 @@
     </row>
     <row r="52" spans="2:8" s="8" customFormat="1">
       <c r="D52" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E52" s="18">
         <f>SUM(E43:E51)/40</f>
@@ -13617,7 +15633,7 @@
     </row>
     <row r="53" spans="2:8" s="8" customFormat="1">
       <c r="D53" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E53" s="18">
         <f>SUM(E43:F51)/9</f>
@@ -13824,7 +15840,7 @@
     </row>
     <row r="64" spans="2:8" s="10" customFormat="1">
       <c r="D64" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E64" s="23">
         <f>SUM(E55:E63)/40</f>
@@ -13836,7 +15852,7 @@
     </row>
     <row r="65" spans="2:8" s="10" customFormat="1">
       <c r="D65" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E65" s="23">
         <f>SUM(E55:F63)/9</f>
@@ -14043,7 +16059,7 @@
     </row>
     <row r="76" spans="2:8" s="12" customFormat="1">
       <c r="D76" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E76" s="25">
         <f>SUM(E67:E75)/40</f>
@@ -14055,7 +16071,7 @@
     </row>
     <row r="77" spans="2:8" s="12" customFormat="1">
       <c r="D77" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E77" s="25">
         <f>SUM(E67:F75)/9</f>
@@ -14262,7 +16278,7 @@
     </row>
     <row r="88" spans="3:8" s="14" customFormat="1">
       <c r="D88" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E88" s="27">
         <f>SUM(E79:E87)/40</f>
@@ -14274,7 +16290,7 @@
     </row>
     <row r="89" spans="3:8" s="14" customFormat="1">
       <c r="D89" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E89" s="27">
         <f>SUM(E79:F87)/9</f>
@@ -14315,8 +16331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:AN12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14362,18 +16378,18 @@
   <sheetData>
     <row r="4" spans="3:40">
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="3:40" s="1" customFormat="1">
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3">
         <v>245.2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
@@ -14382,7 +16398,7 @@
         <v>490.3</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>8</v>
@@ -14391,7 +16407,7 @@
         <v>980.7</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>8</v>
@@ -14400,7 +16416,7 @@
         <v>1961</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>8</v>
@@ -14409,7 +16425,7 @@
         <v>2942</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R5" s="22" t="s">
         <v>8</v>
@@ -14418,7 +16434,7 @@
         <v>4903</v>
       </c>
       <c r="T5" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U5" s="24" t="s">
         <v>8</v>
@@ -14427,7 +16443,7 @@
         <v>9807</v>
       </c>
       <c r="W5" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X5" s="26" t="s">
         <v>8</v>

--- a/final_samples_data.xlsx
+++ b/final_samples_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14580" tabRatio="801" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14580" tabRatio="801" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="39.75 mol%" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="37">
   <si>
     <t>Load</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Mol. % Silica</t>
   </si>
   <si>
-    <t>Primary radials under loads</t>
-  </si>
-  <si>
     <t>Fraction</t>
   </si>
   <si>
@@ -129,12 +126,24 @@
   <si>
     <t>Imaged 30 June 1:00 PM started, finished 2:15 PM</t>
   </si>
+  <si>
+    <t>After a week</t>
+  </si>
+  <si>
+    <t>Cracks under loads</t>
+  </si>
+  <si>
+    <t>Crack threshold highlighted in white.</t>
+  </si>
+  <si>
+    <t>Crack threshold over time changes just for the four highest silica content.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +202,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -261,7 +277,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="237">
+  <cellStyleXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -499,8 +515,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -541,11 +559,14 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="237">
+  <cellStyles count="239">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -664,6 +685,7 @@
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -782,6 +804,7 @@
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1312,11 +1335,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144435640"/>
-        <c:axId val="-2144430168"/>
+        <c:axId val="2132410344"/>
+        <c:axId val="2132417224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144435640"/>
+        <c:axId val="2132410344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105.0"/>
@@ -1347,12 +1370,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144430168"/>
+        <c:crossAx val="2132417224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144430168"/>
+        <c:axId val="2132417224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1384,7 +1407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144435640"/>
+        <c:crossAx val="2132410344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1939,11 +1962,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144379608"/>
-        <c:axId val="-2144374136"/>
+        <c:axId val="2133169528"/>
+        <c:axId val="2133175048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144379608"/>
+        <c:axId val="2133169528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105.0"/>
@@ -1974,12 +1997,1266 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144374136"/>
+        <c:crossAx val="2133175048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144374136"/>
+        <c:axId val="2133175048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cracks per Indent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133169528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crack Onset Data, 1 Week Later</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>245.2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$D$14:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>490.3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$G$14:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>980.7</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$J$14:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>1961</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$M$14:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2942</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$P$14:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>4903</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$S$14:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>9807</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$V$14:$V$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0571428571428571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2133225032"/>
+        <c:axId val="2133230552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2133225032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="105.0"/>
+          <c:min val="35.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mol. % Silica</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133230552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2133230552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Corner Crack Fraction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133225032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Cracks, 1 Week Later</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>245.2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$E$14:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>490.3</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$H$14:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>980.7</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$K$14:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>1961</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$N$14:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2942</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$Q$14:$Q$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>4903</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$T$14:$T$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>9807</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Averages!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Averages!$W$14:$W$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.555555555555556</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2133279416"/>
+        <c:axId val="2133284936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2133279416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="105.0"/>
+          <c:min val="35.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mol. % Silica</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133284936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2133284936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2010,7 +3287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144379608"/>
+        <c:crossAx val="2133279416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2048,13 +3325,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>50799</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>194732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>364067</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2078,13 +3355,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>406401</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>84667</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2101,6 +3378,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>313268</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>406401</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2433,7 +3774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M97"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -2456,7 +3797,7 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -2465,18 +3806,18 @@
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:13" s="1" customFormat="1">
       <c r="C6" s="1" t="s">
@@ -2757,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:13" s="2" customFormat="1">
@@ -2826,7 +4167,7 @@
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="21">
         <f>SUM(E7:E16)/40</f>
@@ -2835,7 +4176,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="21">
         <f>SUM(I7:I16)/40</f>
@@ -2844,7 +4185,7 @@
     </row>
     <row r="18" spans="2:12" s="3" customFormat="1">
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="21">
         <f>SUM(E7:F16)/10</f>
@@ -2853,7 +4194,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="21">
         <f>SUM(I7:J16)/10</f>
@@ -3203,7 +4544,7 @@
     </row>
     <row r="30" spans="2:12" s="5" customFormat="1">
       <c r="D30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="20">
         <f>SUM(E20:E29)/40</f>
@@ -3212,7 +4553,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" s="20">
         <f>SUM(I20:I29)/40</f>
@@ -3221,7 +4562,7 @@
     </row>
     <row r="31" spans="2:12" s="5" customFormat="1">
       <c r="D31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="20">
         <f>SUM(E20:F29)/10</f>
@@ -3230,7 +4571,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="20">
         <f>SUM(I20:J29)/10</f>
@@ -3580,7 +4921,7 @@
     </row>
     <row r="43" spans="2:12" s="16" customFormat="1">
       <c r="D43" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="19">
         <f>SUM(E33:E42)/40</f>
@@ -3589,7 +4930,7 @@
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43" s="19">
         <f>SUM(I33:I42)/40</f>
@@ -3598,7 +4939,7 @@
     </row>
     <row r="44" spans="2:12" s="16" customFormat="1">
       <c r="D44" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="19">
         <f>SUM(E33:F42)/10</f>
@@ -3607,7 +4948,7 @@
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44" s="19">
         <f>SUM(I33:J42)/10</f>
@@ -3957,7 +5298,7 @@
     </row>
     <row r="56" spans="2:12" s="8" customFormat="1">
       <c r="D56" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E46:E55)/40</f>
@@ -3966,7 +5307,7 @@
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I56" s="18">
         <f>SUM(I46:I55)/40</f>
@@ -3975,7 +5316,7 @@
     </row>
     <row r="57" spans="2:12" s="8" customFormat="1">
       <c r="D57" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" s="18">
         <f>SUM(E46:F55)/10</f>
@@ -3984,7 +5325,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" s="18">
         <f>SUM(I46:J55)/10</f>
@@ -4334,7 +5675,7 @@
     </row>
     <row r="69" spans="2:12" s="10" customFormat="1">
       <c r="D69" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E69" s="23">
         <f>SUM(E59:E68)/40</f>
@@ -4343,7 +5684,7 @@
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I69" s="23">
         <f>SUM(I59:I68)/40</f>
@@ -4352,7 +5693,7 @@
     </row>
     <row r="70" spans="2:12" s="10" customFormat="1">
       <c r="D70" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E70" s="23">
         <f>SUM(E59:F68)/10</f>
@@ -4361,7 +5702,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
       <c r="H70" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I70" s="23">
         <f>SUM(I59:J68)/10</f>
@@ -4711,7 +6052,7 @@
     </row>
     <row r="82" spans="2:12" s="12" customFormat="1">
       <c r="D82" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E82" s="25">
         <f>SUM(E72:E81)/40</f>
@@ -4720,7 +6061,7 @@
       <c r="F82" s="25"/>
       <c r="G82" s="25"/>
       <c r="H82" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I82" s="25">
         <f>SUM(I72:I81)/40</f>
@@ -4729,7 +6070,7 @@
     </row>
     <row r="83" spans="2:12" s="12" customFormat="1">
       <c r="D83" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83" s="25">
         <f>SUM(E72:F81)/10</f>
@@ -4738,7 +6079,7 @@
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
       <c r="H83" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I83" s="25">
         <f>SUM(I72:J81)/10</f>
@@ -5088,7 +6429,7 @@
     </row>
     <row r="95" spans="2:12" s="14" customFormat="1">
       <c r="D95" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E95" s="27">
         <f>SUM(E85:E94)/40</f>
@@ -5097,7 +6438,7 @@
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I95" s="27">
         <f>SUM(I85:I94)/40</f>
@@ -5106,7 +6447,7 @@
     </row>
     <row r="96" spans="2:12" s="14" customFormat="1">
       <c r="D96" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96" s="27">
         <f>SUM(E85:F94)/10</f>
@@ -5115,7 +6456,7 @@
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I96" s="27">
         <f>SUM(I85:J94)/10</f>
@@ -5159,7 +6500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L97"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A80" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -5182,7 +6523,7 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -5196,18 +6537,18 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:12" s="1" customFormat="1">
       <c r="C6" s="1" t="s">
@@ -5566,7 +6907,7 @@
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="21">
         <f>SUM(E7:E16)/40</f>
@@ -5575,7 +6916,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="21">
         <f>SUM(I7:I16)/40</f>
@@ -5584,7 +6925,7 @@
     </row>
     <row r="18" spans="2:12" s="3" customFormat="1">
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="21">
         <f>SUM(E7:F16)/10</f>
@@ -5593,7 +6934,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="21">
         <f>SUM(I7:J16)/10</f>
@@ -5943,7 +7284,7 @@
     </row>
     <row r="30" spans="2:12" s="5" customFormat="1">
       <c r="D30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="20">
         <f>SUM(E20:E29)/40</f>
@@ -5952,7 +7293,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" s="20">
         <f>SUM(I20:I29)/40</f>
@@ -5961,7 +7302,7 @@
     </row>
     <row r="31" spans="2:12" s="5" customFormat="1">
       <c r="D31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="20">
         <f>SUM(E20:F29)/10</f>
@@ -5970,7 +7311,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="20">
         <f>SUM(I20:J29)/10</f>
@@ -6320,7 +7661,7 @@
     </row>
     <row r="43" spans="2:12" s="16" customFormat="1">
       <c r="D43" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="19">
         <f>SUM(E33:E42)/40</f>
@@ -6329,7 +7670,7 @@
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43" s="19">
         <f>SUM(I33:I42)/40</f>
@@ -6338,7 +7679,7 @@
     </row>
     <row r="44" spans="2:12" s="16" customFormat="1">
       <c r="D44" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="19">
         <f>SUM(E33:F42)/10</f>
@@ -6347,7 +7688,7 @@
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44" s="19">
         <f>SUM(I33:J42)/10</f>
@@ -6697,7 +8038,7 @@
     </row>
     <row r="56" spans="2:12" s="8" customFormat="1">
       <c r="D56" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E46:E55)/40</f>
@@ -6706,7 +8047,7 @@
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I56" s="18">
         <f>SUM(I46:I55)/40</f>
@@ -6715,7 +8056,7 @@
     </row>
     <row r="57" spans="2:12" s="8" customFormat="1">
       <c r="D57" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" s="18">
         <f>SUM(E46:F55)/10</f>
@@ -6724,7 +8065,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" s="18">
         <f>SUM(I46:J55)/10</f>
@@ -7074,7 +8415,7 @@
     </row>
     <row r="69" spans="2:12" s="10" customFormat="1">
       <c r="D69" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E69" s="23">
         <f>SUM(E59:E68)/40</f>
@@ -7083,7 +8424,7 @@
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I69" s="23">
         <f>SUM(I59:I68)/40</f>
@@ -7092,7 +8433,7 @@
     </row>
     <row r="70" spans="2:12" s="10" customFormat="1">
       <c r="D70" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E70" s="23">
         <f>SUM(E59:F68)/10</f>
@@ -7101,7 +8442,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
       <c r="H70" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I70" s="23">
         <f>SUM(I59:J68)/10</f>
@@ -7451,7 +8792,7 @@
     </row>
     <row r="82" spans="2:12" s="12" customFormat="1">
       <c r="D82" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E82" s="25">
         <f>SUM(E72:E81)/40</f>
@@ -7460,7 +8801,7 @@
       <c r="F82" s="25"/>
       <c r="G82" s="25"/>
       <c r="H82" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I82" s="25">
         <f>SUM(I72:I81)/40</f>
@@ -7469,7 +8810,7 @@
     </row>
     <row r="83" spans="2:12" s="12" customFormat="1">
       <c r="D83" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83" s="25">
         <f>SUM(E72:F81)/10</f>
@@ -7478,7 +8819,7 @@
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
       <c r="H83" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I83" s="25">
         <f>SUM(I72:J81)/10</f>
@@ -7828,7 +9169,7 @@
     </row>
     <row r="95" spans="2:12" s="14" customFormat="1">
       <c r="D95" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E95" s="27">
         <f>SUM(E85:E94)/40</f>
@@ -7837,7 +9178,7 @@
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I95" s="27">
         <f>SUM(I85:I94)/40</f>
@@ -7846,7 +9187,7 @@
     </row>
     <row r="96" spans="2:12" s="14" customFormat="1">
       <c r="D96" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96" s="27">
         <f>SUM(E85:F94)/10</f>
@@ -7855,7 +9196,7 @@
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I96" s="27">
         <f>SUM(I85:J94)/10</f>
@@ -7899,7 +9240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M97"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A84" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -7922,7 +9263,7 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -7936,18 +9277,18 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:12" s="1" customFormat="1">
       <c r="C6" s="1" t="s">
@@ -8306,7 +9647,7 @@
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="21">
         <f>SUM(E7:E16)/40</f>
@@ -8315,7 +9656,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="21">
         <f>SUM(I7:I16)/40</f>
@@ -8324,7 +9665,7 @@
     </row>
     <row r="18" spans="2:12" s="3" customFormat="1">
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="21">
         <f>SUM(E7:F16)/10</f>
@@ -8333,7 +9674,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
       <c r="H18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="21">
         <f>SUM(I7:J16)/10</f>
@@ -8683,7 +10024,7 @@
     </row>
     <row r="30" spans="2:12" s="5" customFormat="1">
       <c r="D30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="20">
         <f>SUM(E20:E29)/40</f>
@@ -8692,7 +10033,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" s="20">
         <f>SUM(I20:I29)/40</f>
@@ -8701,7 +10042,7 @@
     </row>
     <row r="31" spans="2:12" s="5" customFormat="1">
       <c r="D31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="20">
         <f>SUM(E20:F29)/10</f>
@@ -8710,7 +10051,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="20">
         <f>SUM(I20:J29)/10</f>
@@ -9060,7 +10401,7 @@
     </row>
     <row r="43" spans="2:12" s="16" customFormat="1">
       <c r="D43" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="19">
         <f>SUM(E33:E42)/40</f>
@@ -9069,7 +10410,7 @@
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43" s="19">
         <f>SUM(I33:I42)/40</f>
@@ -9078,7 +10419,7 @@
     </row>
     <row r="44" spans="2:12" s="16" customFormat="1">
       <c r="D44" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="19">
         <f>SUM(E33:F42)/10</f>
@@ -9087,7 +10428,7 @@
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44" s="19">
         <f>SUM(I33:J42)/10</f>
@@ -9437,7 +10778,7 @@
     </row>
     <row r="56" spans="2:12" s="8" customFormat="1">
       <c r="D56" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E46:E55)/40</f>
@@ -9446,7 +10787,7 @@
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I56" s="18">
         <f>SUM(I46:I55)/40</f>
@@ -9455,7 +10796,7 @@
     </row>
     <row r="57" spans="2:12" s="8" customFormat="1">
       <c r="D57" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" s="18">
         <f>SUM(E46:F55)/10</f>
@@ -9464,7 +10805,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" s="18">
         <f>SUM(I46:J55)/10</f>
@@ -9814,7 +11155,7 @@
     </row>
     <row r="69" spans="2:13" s="10" customFormat="1">
       <c r="D69" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E69" s="23">
         <f>SUM(E59:E68)/40</f>
@@ -9823,7 +11164,7 @@
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I69" s="23">
         <f>SUM(I59:I68)/40</f>
@@ -9832,7 +11173,7 @@
     </row>
     <row r="70" spans="2:13" s="10" customFormat="1">
       <c r="D70" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E70" s="23">
         <f>SUM(E59:F68)/10</f>
@@ -9841,7 +11182,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
       <c r="H70" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I70" s="23">
         <f>SUM(I59:J68)/10</f>
@@ -10009,7 +11350,7 @@
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
       <c r="M76" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="2:13" s="12" customFormat="1">
@@ -10174,7 +11515,7 @@
     </row>
     <row r="82" spans="2:12" s="12" customFormat="1">
       <c r="D82" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E82" s="25">
         <f>SUM(E72:E81)/40</f>
@@ -10183,7 +11524,7 @@
       <c r="F82" s="25"/>
       <c r="G82" s="25"/>
       <c r="H82" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I82" s="25">
         <f>SUM(I72:I81)/40</f>
@@ -10192,7 +11533,7 @@
     </row>
     <row r="83" spans="2:12" s="12" customFormat="1">
       <c r="D83" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83" s="25">
         <f>SUM(E72:F81)/10</f>
@@ -10201,7 +11542,7 @@
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
       <c r="H83" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I83" s="25">
         <f>SUM(I72:J81)/10</f>
@@ -10551,7 +11892,7 @@
     </row>
     <row r="95" spans="2:12" s="14" customFormat="1">
       <c r="D95" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E95" s="27">
         <f>SUM(E85:E94)/40</f>
@@ -10560,7 +11901,7 @@
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I95" s="27">
         <f>SUM(I85:I94)/40</f>
@@ -10569,7 +11910,7 @@
     </row>
     <row r="96" spans="2:12" s="14" customFormat="1">
       <c r="D96" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96" s="27">
         <f>SUM(E85:F94)/10</f>
@@ -10578,7 +11919,7 @@
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I96" s="27">
         <f>SUM(I85:J94)/10</f>
@@ -10622,7 +11963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L97"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A86" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -10645,7 +11986,7 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -10659,18 +12000,18 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:12" s="1" customFormat="1">
       <c r="C6" s="1" t="s">
@@ -11029,7 +12370,7 @@
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="21">
         <f>SUM(E7:E16)/40</f>
@@ -11038,7 +12379,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="21">
         <f>SUM(I7:I16)/40</f>
@@ -11050,7 +12391,7 @@
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="30">
         <f>SUM(E7:F16)/10</f>
@@ -11059,7 +12400,7 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="30">
         <f>SUM(I7:J16)/10</f>
@@ -11412,7 +12753,7 @@
     </row>
     <row r="30" spans="1:12" s="5" customFormat="1">
       <c r="D30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="20">
         <f>SUM(E20:E29)/40</f>
@@ -11421,7 +12762,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" s="20">
         <f>SUM(I20:I29)/40</f>
@@ -11430,7 +12771,7 @@
     </row>
     <row r="31" spans="1:12" s="5" customFormat="1">
       <c r="D31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="20">
         <f>SUM(E20:F29)/10</f>
@@ -11439,7 +12780,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="20">
         <f>SUM(I20:J29)/10</f>
@@ -11789,7 +13130,7 @@
     </row>
     <row r="43" spans="2:12" s="16" customFormat="1">
       <c r="D43" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="19">
         <f>SUM(E33:E42)/40</f>
@@ -11798,7 +13139,7 @@
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43" s="19">
         <f>SUM(I33:I42)/40</f>
@@ -11807,7 +13148,7 @@
     </row>
     <row r="44" spans="2:12" s="16" customFormat="1">
       <c r="D44" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="19">
         <f>SUM(E33:F42)/10</f>
@@ -11816,7 +13157,7 @@
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44" s="19">
         <f>SUM(I33:J42)/10</f>
@@ -12166,7 +13507,7 @@
     </row>
     <row r="56" spans="2:12" s="8" customFormat="1">
       <c r="D56" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E46:E55)/40</f>
@@ -12175,7 +13516,7 @@
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I56" s="18">
         <f>SUM(I46:I55)/40</f>
@@ -12184,7 +13525,7 @@
     </row>
     <row r="57" spans="2:12" s="8" customFormat="1">
       <c r="D57" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" s="18">
         <f>SUM(E46:F55)/10</f>
@@ -12193,7 +13534,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" s="18">
         <f>SUM(I46:J55)/10</f>
@@ -12543,7 +13884,7 @@
     </row>
     <row r="69" spans="2:12" s="10" customFormat="1">
       <c r="D69" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E69" s="23">
         <f>SUM(E59:E68)/40</f>
@@ -12552,7 +13893,7 @@
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I69" s="23">
         <f>SUM(I59:I68)/40</f>
@@ -12561,7 +13902,7 @@
     </row>
     <row r="70" spans="2:12" s="10" customFormat="1">
       <c r="D70" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E70" s="23">
         <f>SUM(E59:F68)/10</f>
@@ -12570,7 +13911,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
       <c r="H70" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I70" s="23">
         <f>SUM(I59:J68)/10</f>
@@ -12920,7 +14261,7 @@
     </row>
     <row r="82" spans="2:12" s="12" customFormat="1">
       <c r="D82" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E82" s="25">
         <f>SUM(E72:E81)/40</f>
@@ -12929,7 +14270,7 @@
       <c r="F82" s="25"/>
       <c r="G82" s="25"/>
       <c r="H82" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I82" s="25">
         <f>SUM(I72:I81)/40</f>
@@ -12938,7 +14279,7 @@
     </row>
     <row r="83" spans="2:12" s="12" customFormat="1">
       <c r="D83" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83" s="25">
         <f>SUM(E72:F81)/10</f>
@@ -12947,7 +14288,7 @@
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
       <c r="H83" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I83" s="25">
         <f>SUM(I72:J81)/10</f>
@@ -13297,7 +14638,7 @@
     </row>
     <row r="95" spans="2:12" s="14" customFormat="1">
       <c r="D95" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E95" s="27">
         <f>SUM(E85:E94)/40</f>
@@ -13306,7 +14647,7 @@
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I95" s="27">
         <f>SUM(I85:I94)/40</f>
@@ -13315,7 +14656,7 @@
     </row>
     <row r="96" spans="2:12" s="14" customFormat="1">
       <c r="D96" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96" s="27">
         <f>SUM(E85:F94)/10</f>
@@ -13324,7 +14665,7 @@
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I96" s="27">
         <f>SUM(I85:J94)/10</f>
@@ -13368,7 +14709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L97"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A82" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -13391,7 +14732,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -13405,18 +14746,18 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:12" s="1" customFormat="1">
       <c r="C6" s="1" t="s">
@@ -13775,7 +15116,7 @@
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="21">
         <f>SUM(E7:E16)/40</f>
@@ -13784,7 +15125,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="21">
         <f>SUM(I7:I16)/40</f>
@@ -13796,7 +15137,7 @@
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="30">
         <f>SUM(E7:F16)/10</f>
@@ -13805,7 +15146,7 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="30">
         <f>SUM(I7:J16)/10</f>
@@ -14158,7 +15499,7 @@
     </row>
     <row r="30" spans="1:12" s="5" customFormat="1">
       <c r="D30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="20">
         <f>SUM(E20:E29)/40</f>
@@ -14167,7 +15508,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" s="20">
         <f>SUM(I20:I29)/40</f>
@@ -14176,7 +15517,7 @@
     </row>
     <row r="31" spans="1:12" s="5" customFormat="1">
       <c r="D31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="20">
         <f>SUM(E20:F29)/10</f>
@@ -14185,7 +15526,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="20">
         <f>SUM(I20:J29)/10</f>
@@ -14535,7 +15876,7 @@
     </row>
     <row r="43" spans="2:12" s="16" customFormat="1">
       <c r="D43" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="19">
         <f>SUM(E33:E42)/40</f>
@@ -14544,7 +15885,7 @@
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43" s="19">
         <f>SUM(I33:I42)/40</f>
@@ -14553,7 +15894,7 @@
     </row>
     <row r="44" spans="2:12" s="16" customFormat="1">
       <c r="D44" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="19">
         <f>SUM(E33:F42)/10</f>
@@ -14562,7 +15903,7 @@
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44" s="19">
         <f>SUM(I33:J42)/10</f>
@@ -14912,7 +16253,7 @@
     </row>
     <row r="56" spans="2:12" s="8" customFormat="1">
       <c r="D56" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E46:E55)/40</f>
@@ -14921,7 +16262,7 @@
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I56" s="18">
         <f>SUM(I46:I55)/40</f>
@@ -14930,7 +16271,7 @@
     </row>
     <row r="57" spans="2:12" s="8" customFormat="1">
       <c r="D57" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" s="18">
         <f>SUM(E46:F55)/10</f>
@@ -14939,7 +16280,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" s="18">
         <f>SUM(I46:J55)/10</f>
@@ -15289,7 +16630,7 @@
     </row>
     <row r="69" spans="2:12" s="10" customFormat="1">
       <c r="D69" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E69" s="23">
         <f>SUM(E59:E68)/40</f>
@@ -15298,7 +16639,7 @@
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I69" s="23">
         <f>SUM(I59:I68)/40</f>
@@ -15307,7 +16648,7 @@
     </row>
     <row r="70" spans="2:12" s="10" customFormat="1">
       <c r="D70" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E70" s="23">
         <f>SUM(E59:F68)/10</f>
@@ -15316,7 +16657,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
       <c r="H70" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I70" s="23">
         <f>SUM(I59:J68)/10</f>
@@ -15666,7 +17007,7 @@
     </row>
     <row r="82" spans="2:12" s="12" customFormat="1">
       <c r="D82" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E82" s="25">
         <f>SUM(E72:E81)/40</f>
@@ -15675,7 +17016,7 @@
       <c r="F82" s="25"/>
       <c r="G82" s="25"/>
       <c r="H82" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I82" s="25">
         <f>SUM(I72:I81)/40</f>
@@ -15684,7 +17025,7 @@
     </row>
     <row r="83" spans="2:12" s="12" customFormat="1">
       <c r="D83" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83" s="25">
         <f>SUM(E72:F81)/10</f>
@@ -15693,7 +17034,7 @@
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
       <c r="H83" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I83" s="25">
         <f>SUM(I72:J81)/10</f>
@@ -16043,7 +17384,7 @@
     </row>
     <row r="95" spans="2:12" s="14" customFormat="1">
       <c r="D95" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E95" s="27">
         <f>SUM(E85:E94)/40</f>
@@ -16052,7 +17393,7 @@
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I95" s="27">
         <f>SUM(I85:I94)/40</f>
@@ -16061,7 +17402,7 @@
     </row>
     <row r="96" spans="2:12" s="14" customFormat="1">
       <c r="D96" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96" s="27">
         <f>SUM(E85:F94)/10</f>
@@ -16070,7 +17411,7 @@
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I96" s="27">
         <f>SUM(I85:J94)/10</f>
@@ -16114,7 +17455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L97"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A87" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -16137,7 +17478,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -16151,18 +17492,18 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:12" s="1" customFormat="1">
       <c r="C6" s="1" t="s">
@@ -16521,7 +17862,7 @@
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="21">
         <f>SUM(E7:E16)/40</f>
@@ -16530,7 +17871,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="21">
         <f>SUM(I7:I16)/40</f>
@@ -16542,7 +17883,7 @@
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="30">
         <f>SUM(E7:F16)/10</f>
@@ -16551,7 +17892,7 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="30">
         <f>SUM(I7:J16)/10</f>
@@ -16904,7 +18245,7 @@
     </row>
     <row r="30" spans="1:12" s="5" customFormat="1">
       <c r="D30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="20">
         <f>SUM(E20:E29)/40</f>
@@ -16913,7 +18254,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" s="20">
         <f>SUM(I20:I29)/40</f>
@@ -16925,7 +18266,7 @@
     </row>
     <row r="31" spans="1:12" s="5" customFormat="1">
       <c r="D31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="20">
         <f>SUM(E20:F29)/10</f>
@@ -16934,7 +18275,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="20">
         <f>SUM(I20:J29)/10</f>
@@ -17290,7 +18631,7 @@
     </row>
     <row r="43" spans="2:12" s="16" customFormat="1">
       <c r="D43" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="19">
         <f>SUM(E33:E42)/40</f>
@@ -17299,7 +18640,7 @@
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43" s="19">
         <f>SUM(I33:I42)/40</f>
@@ -17311,7 +18652,7 @@
     </row>
     <row r="44" spans="2:12" s="16" customFormat="1">
       <c r="D44" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44" s="19">
         <f>SUM(E33:F42)/10</f>
@@ -17320,7 +18661,7 @@
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I44" s="19">
         <f>SUM(I33:J42)/10</f>
@@ -17676,7 +19017,7 @@
     </row>
     <row r="56" spans="2:12" s="8" customFormat="1">
       <c r="D56" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56" s="18">
         <f>SUM(E46:E55)/40</f>
@@ -17685,7 +19026,7 @@
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
       <c r="H56" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I56" s="18">
         <f>SUM(I46:I55)/40</f>
@@ -17697,7 +19038,7 @@
     </row>
     <row r="57" spans="2:12" s="8" customFormat="1">
       <c r="D57" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" s="18">
         <f>SUM(E46:F55)/10</f>
@@ -17706,7 +19047,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
       <c r="H57" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I57" s="18">
         <f>SUM(I46:J55)/10</f>
@@ -18062,7 +19403,7 @@
     </row>
     <row r="69" spans="2:12" s="10" customFormat="1">
       <c r="D69" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E69" s="23">
         <f>SUM(E59:E68)/40</f>
@@ -18071,7 +19412,7 @@
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I69" s="23">
         <f>SUM(I59:I68)/40</f>
@@ -18080,7 +19421,7 @@
     </row>
     <row r="70" spans="2:12" s="10" customFormat="1">
       <c r="D70" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E70" s="23">
         <f>SUM(E59:F68)/10</f>
@@ -18089,7 +19430,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
       <c r="H70" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I70" s="23">
         <f>SUM(I59:J68)/10</f>
@@ -18439,7 +19780,7 @@
     </row>
     <row r="82" spans="2:12" s="12" customFormat="1">
       <c r="D82" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E82" s="25">
         <f>SUM(E72:E81)/40</f>
@@ -18448,7 +19789,7 @@
       <c r="F82" s="25"/>
       <c r="G82" s="25"/>
       <c r="H82" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I82" s="25">
         <f>SUM(I72:I81)/40</f>
@@ -18457,7 +19798,7 @@
     </row>
     <row r="83" spans="2:12" s="12" customFormat="1">
       <c r="D83" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E83" s="25">
         <f>SUM(E72:F81)/10</f>
@@ -18466,7 +19807,7 @@
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
       <c r="H83" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I83" s="25">
         <f>SUM(I72:J81)/10</f>
@@ -18816,7 +20157,7 @@
     </row>
     <row r="95" spans="2:12" s="14" customFormat="1">
       <c r="D95" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E95" s="27">
         <f>SUM(E85:E94)/40</f>
@@ -18825,7 +20166,7 @@
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
       <c r="H95" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I95" s="27">
         <f>SUM(I85:I94)/40</f>
@@ -18834,7 +20175,7 @@
     </row>
     <row r="96" spans="2:12" s="14" customFormat="1">
       <c r="D96" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E96" s="27">
         <f>SUM(E85:F94)/10</f>
@@ -18843,7 +20184,7 @@
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
       <c r="H96" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I96" s="27">
         <f>SUM(I85:J94)/10</f>
@@ -18887,7 +20228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A81" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
@@ -18910,7 +20251,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:12">
@@ -18924,18 +20265,18 @@
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="2:12" s="1" customFormat="1">
       <c r="C6" s="1" t="s">
@@ -19262,7 +20603,7 @@
     </row>
     <row r="16" spans="2:12" s="3" customFormat="1">
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="21">
         <f>SUM(E7:E15)/35</f>
@@ -19271,7 +20612,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="21">
         <f>SUM(I7:I15)/35</f>
@@ -19280,7 +20621,7 @@
     </row>
     <row r="17" spans="2:12" s="3" customFormat="1">
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="21">
         <f>SUM(E7:F15)/9</f>
@@ -19289,7 +20630,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" s="21">
         <f>SUM(I7:J15)/9</f>
@@ -19607,7 +20948,7 @@
     </row>
     <row r="28" spans="2:12" s="5" customFormat="1">
       <c r="D28" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="20">
         <f>SUM(E19:E27)/35</f>
@@ -19616,7 +20957,7 @@
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" s="20">
         <f>SUM(I19:I27)/35</f>
@@ -19625,7 +20966,7 @@
     </row>
     <row r="29" spans="2:12" s="5" customFormat="1">
       <c r="D29" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="20">
         <f>SUM(E19:F27)/9</f>
@@ -19634,7 +20975,7 @@
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I29" s="20">
         <f>SUM(I19:J27)/9</f>
@@ -19952,7 +21293,7 @@
     </row>
     <row r="40" spans="2:12" s="16" customFormat="1">
       <c r="D40" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E40" s="19">
         <f>SUM(E31:E39)/35</f>
@@ -19961,7 +21302,7 @@
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I40" s="19">
         <f>SUM(I31:I39)/35</f>
@@ -19970,7 +21311,7 @@
     </row>
     <row r="41" spans="2:12" s="16" customFormat="1">
       <c r="D41" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" s="19">
         <f>SUM(E31:F39)/9</f>
@@ -19979,7 +21320,7 @@
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I41" s="19">
         <f>SUM(I31:J39)/9</f>
@@ -20297,7 +21638,7 @@
     </row>
     <row r="52" spans="2:12" s="8" customFormat="1">
       <c r="D52" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E52" s="18">
         <f>SUM(E43:E51)/35</f>
@@ -20306,7 +21647,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
       <c r="H52" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I52" s="18">
         <f>SUM(I43:I51)/35</f>
@@ -20315,7 +21656,7 @@
     </row>
     <row r="53" spans="2:12" s="8" customFormat="1">
       <c r="D53" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53" s="18">
         <f>SUM(E43:F51)/9</f>
@@ -20324,7 +21665,7 @@
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
       <c r="H53" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I53" s="18">
         <f>SUM(I43:J51)/9</f>
@@ -20642,7 +21983,7 @@
     </row>
     <row r="64" spans="2:12" s="10" customFormat="1">
       <c r="D64" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E64" s="23">
         <f>SUM(E55:E63)/35</f>
@@ -20651,7 +21992,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
       <c r="H64" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I64" s="23">
         <f>SUM(I55:I63)/35</f>
@@ -20660,7 +22001,7 @@
     </row>
     <row r="65" spans="2:12" s="10" customFormat="1">
       <c r="D65" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65" s="23">
         <f>SUM(E55:F63)/9</f>
@@ -20669,7 +22010,7 @@
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I65" s="23">
         <f>SUM(I55:J63)/9</f>
@@ -20987,7 +22328,7 @@
     </row>
     <row r="76" spans="2:12" s="12" customFormat="1">
       <c r="D76" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E76" s="25">
         <f>SUM(E67:E75)/35</f>
@@ -20996,7 +22337,7 @@
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
       <c r="H76" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I76" s="25">
         <f>SUM(I67:I75)/35</f>
@@ -21005,7 +22346,7 @@
     </row>
     <row r="77" spans="2:12" s="12" customFormat="1">
       <c r="D77" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E77" s="25">
         <f>SUM(E67:F75)/9</f>
@@ -21014,7 +22355,7 @@
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
       <c r="H77" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I77" s="25">
         <f>SUM(I67:J75)/9</f>
@@ -21332,7 +22673,7 @@
     </row>
     <row r="88" spans="3:12" s="14" customFormat="1">
       <c r="D88" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E88" s="27">
         <f>SUM(E79:E87)/35</f>
@@ -21341,7 +22682,7 @@
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I88" s="27">
         <f>SUM(I79:I87)/35</f>
@@ -21350,7 +22691,7 @@
     </row>
     <row r="89" spans="3:12" s="14" customFormat="1">
       <c r="D89" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E89" s="27">
         <f>SUM(E79:F87)/9</f>
@@ -21359,7 +22700,7 @@
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
       <c r="H89" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I89" s="27">
         <f>SUM(I79:J87)/9</f>
@@ -21401,10 +22742,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AN12"/>
+  <dimension ref="B2:AN20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21448,12 +22789,17 @@
     <col min="40" max="40" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:40">
+    <row r="2" spans="2:40">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40">
       <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="3:40" s="1" customFormat="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:40" s="1" customFormat="1">
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -21461,7 +22807,7 @@
         <v>245.2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>8</v>
@@ -21470,7 +22816,7 @@
         <v>490.3</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>8</v>
@@ -21479,7 +22825,7 @@
         <v>980.7</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>8</v>
@@ -21488,7 +22834,7 @@
         <v>1961</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5" s="17" t="s">
         <v>8</v>
@@ -21497,7 +22843,7 @@
         <v>2942</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R5" s="22" t="s">
         <v>8</v>
@@ -21506,7 +22852,7 @@
         <v>4903</v>
       </c>
       <c r="T5" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U5" s="24" t="s">
         <v>8</v>
@@ -21515,13 +22861,13 @@
         <v>9807</v>
       </c>
       <c r="W5" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X5" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:40">
+    <row r="6" spans="2:40">
       <c r="C6" s="1">
         <v>39.75</v>
       </c>
@@ -21561,15 +22907,15 @@
         <f>'39.75 mol%'!E45</f>
         <v>0</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="40">
         <f>'39.75 mol%'!E56</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="40">
         <f>'39.75 mol%'!E57</f>
         <v>0.3</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="40">
         <f>'39.75 mol%'!E58</f>
         <v>7.9056941504209485E-2</v>
       </c>
@@ -21625,7 +22971,7 @@
       <c r="AM6" s="28"/>
       <c r="AN6" s="28"/>
     </row>
-    <row r="7" spans="3:40">
+    <row r="7" spans="2:40">
       <c r="C7" s="1">
         <v>45.14</v>
       </c>
@@ -21689,15 +23035,15 @@
         <f>'45.14 mol%'!$E$71</f>
         <v>0</v>
       </c>
-      <c r="S7" s="36">
+      <c r="S7" s="41">
         <f>'45.14 mol%'!$E$82</f>
         <v>0</v>
       </c>
-      <c r="T7" s="36">
+      <c r="T7" s="41">
         <f>'45.14 mol%'!E83</f>
         <v>0.5</v>
       </c>
-      <c r="U7" s="36">
+      <c r="U7" s="41">
         <f>'45.14 mol%'!$E$84</f>
         <v>0</v>
       </c>
@@ -21729,7 +23075,7 @@
       <c r="AM7" s="28"/>
       <c r="AN7" s="28"/>
     </row>
-    <row r="8" spans="3:40">
+    <row r="8" spans="2:40">
       <c r="C8" s="1">
         <v>48.51</v>
       </c>
@@ -21805,15 +23151,15 @@
         <f>'48.51 mol%'!$E$84</f>
         <v>0</v>
       </c>
-      <c r="V8" s="37">
+      <c r="V8" s="42">
         <f>'48.51 mol%'!$E$95</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="W8" s="37">
+      <c r="W8" s="42">
         <f>'48.51 mol%'!E96</f>
         <v>4.7</v>
       </c>
-      <c r="X8" s="37">
+      <c r="X8" s="42">
         <f>'48.51 mol%'!$E$97</f>
         <v>0.21889875894272828</v>
       </c>
@@ -21833,7 +23179,7 @@
       <c r="AM8" s="28"/>
       <c r="AN8" s="28"/>
     </row>
-    <row r="9" spans="3:40">
+    <row r="9" spans="2:40">
       <c r="C9" s="1">
         <v>60.61</v>
       </c>
@@ -21909,15 +23255,15 @@
         <f>'60.61 mol%'!$E$84</f>
         <v>0</v>
       </c>
-      <c r="V9" s="37">
+      <c r="V9" s="42">
         <f>'60.61 mol%'!$E$95</f>
         <v>0.3</v>
       </c>
-      <c r="W9" s="37">
+      <c r="W9" s="42">
         <f>'60.61 mol%'!E96</f>
         <v>6.2</v>
       </c>
-      <c r="X9" s="37">
+      <c r="X9" s="42">
         <f>'60.61 mol%'!$E$97</f>
         <v>0.2581988897471611</v>
       </c>
@@ -21937,7 +23283,7 @@
       <c r="AM9" s="28"/>
       <c r="AN9" s="28"/>
     </row>
-    <row r="10" spans="3:40">
+    <row r="10" spans="2:40">
       <c r="C10" s="1">
         <v>85.98</v>
       </c>
@@ -22013,15 +23359,15 @@
         <f>'85.98 mol%'!$E$84</f>
         <v>0</v>
       </c>
-      <c r="V10" s="37">
+      <c r="V10" s="42">
         <f>'85.98 mol%'!$E$95</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="W10" s="37">
+      <c r="W10" s="42">
         <f>'85.98 mol%'!E96</f>
         <v>0.6</v>
       </c>
-      <c r="X10" s="37">
+      <c r="X10" s="42">
         <f>'85.98 mol%'!$E$97</f>
         <v>7.9056941504209485E-2</v>
       </c>
@@ -22041,7 +23387,7 @@
       <c r="AM10" s="28"/>
       <c r="AN10" s="28"/>
     </row>
-    <row r="11" spans="3:40">
+    <row r="11" spans="2:40">
       <c r="C11" s="1">
         <v>89.93</v>
       </c>
@@ -22117,15 +23463,15 @@
         <f>'89.93 mol%'!$E$84</f>
         <v>0</v>
       </c>
-      <c r="V11" s="37">
+      <c r="V11" s="42">
         <f>'89.93 mol%'!$E$95</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="W11" s="37">
+      <c r="W11" s="42">
         <f>'89.93 mol%'!E96</f>
         <v>0.4</v>
       </c>
-      <c r="X11" s="37">
+      <c r="X11" s="42">
         <f>'89.93 mol%'!$E$97</f>
         <v>7.9056941504209485E-2</v>
       </c>
@@ -22145,7 +23491,7 @@
       <c r="AM11" s="28"/>
       <c r="AN11" s="28"/>
     </row>
-    <row r="12" spans="3:40">
+    <row r="12" spans="2:40">
       <c r="C12" s="1">
         <v>100</v>
       </c>
@@ -22249,6 +23595,778 @@
       <c r="AM12" s="28"/>
       <c r="AN12" s="28"/>
     </row>
+    <row r="13" spans="2:40">
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28"/>
+    </row>
+    <row r="14" spans="2:40">
+      <c r="C14" s="1">
+        <v>39.75</v>
+      </c>
+      <c r="D14" s="31">
+        <f>'39.75 mol%'!I17</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="31">
+        <f>'39.75 mol%'!I18</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="31">
+        <f>'39.75 mol%'!I19</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="32">
+        <f>'39.75 mol%'!I30</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="32">
+        <f>'39.75 mol%'!I31</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="32">
+        <f>'39.75 mol%'!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="33">
+        <f>'39.75 mol%'!I43</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="33">
+        <f>'39.75 mol%'!I44</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="33">
+        <f>'39.75 mol%'!I45</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="40">
+        <f>'39.75 mol%'!I56</f>
+        <v>0.05</v>
+      </c>
+      <c r="N14" s="40">
+        <f>'39.75 mol%'!I57</f>
+        <v>1.3</v>
+      </c>
+      <c r="O14" s="40">
+        <f>'39.75 mol%'!I58</f>
+        <v>0.10540925533894598</v>
+      </c>
+      <c r="P14" s="35">
+        <f>'39.75 mol%'!I69</f>
+        <v>0.15</v>
+      </c>
+      <c r="Q14" s="35">
+        <f>'39.75 mol%'!I70</f>
+        <v>3.5</v>
+      </c>
+      <c r="R14" s="35">
+        <f>'39.75 mol%'!I71</f>
+        <v>0.17480147469502527</v>
+      </c>
+      <c r="S14" s="36">
+        <f>'39.75 mol%'!I82</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="T14" s="36">
+        <f>'39.75 mol%'!I83</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U14" s="36">
+        <f>'39.75 mol%'!I84</f>
+        <v>0.29930474993446615</v>
+      </c>
+      <c r="V14" s="37">
+        <f>'39.75 mol%'!I95</f>
+        <v>0.5</v>
+      </c>
+      <c r="W14" s="37">
+        <f>'39.75 mol%'!I96</f>
+        <v>7.5</v>
+      </c>
+      <c r="X14" s="37">
+        <f>'39.75 mol%'!I97</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28"/>
+    </row>
+    <row r="15" spans="2:40">
+      <c r="C15" s="1">
+        <v>45.14</v>
+      </c>
+      <c r="D15" s="31">
+        <f>'45.14 mol%'!I17</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="31">
+        <f>'45.14 mol%'!I18</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="31">
+        <f>'45.14 mol%'!I19</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
+        <f>'45.14 mol%'!I30</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
+        <f>'45.14 mol%'!I31</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="32">
+        <f>'45.14 mol%'!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="33">
+        <f>'45.14 mol%'!I43</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="33">
+        <f>'45.14 mol%'!I44</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="33">
+        <f>'45.14 mol%'!I45</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="34">
+        <f>'45.14 mol%'!I56</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="34">
+        <f>'45.14 mol%'!I57</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="34">
+        <f>'45.14 mol%'!I58</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="35">
+        <f>'45.14 mol%'!I69</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="35">
+        <f>'45.14 mol%'!I70</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="35">
+        <f>'45.14 mol%'!I71</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="41">
+        <f>'45.14 mol%'!I82</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="41">
+        <f>'45.14 mol%'!I83</f>
+        <v>0.5</v>
+      </c>
+      <c r="U15" s="41">
+        <f>'45.14 mol%'!I84</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="37">
+        <f>'45.14 mol%'!I95</f>
+        <v>0.3</v>
+      </c>
+      <c r="W15" s="37">
+        <f>'45.14 mol%'!I96</f>
+        <v>6</v>
+      </c>
+      <c r="X15" s="37">
+        <f>'45.14 mol%'!I97</f>
+        <v>0.22973414586817037</v>
+      </c>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28"/>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="C16" s="1">
+        <v>48.51</v>
+      </c>
+      <c r="D16" s="31">
+        <f>'48.51 mol%'!I17</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="31">
+        <f>'48.51 mol%'!I18</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="31">
+        <f>'48.51 mol%'!I19</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="32">
+        <f>'48.51 mol%'!I30</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="32">
+        <f>'48.51 mol%'!I31</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="32">
+        <f>'48.51 mol%'!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="33">
+        <f>'48.51 mol%'!I43</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="33">
+        <f>'48.51 mol%'!I44</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="33">
+        <f>'48.51 mol%'!I45</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="34">
+        <f>'48.51 mol%'!I56</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="34">
+        <f>'48.51 mol%'!I57</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="34">
+        <f>'48.51 mol%'!I58</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="35">
+        <f>'48.51 mol%'!I69</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="35">
+        <f>'48.51 mol%'!I70</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="35">
+        <f>'48.51 mol%'!I71</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="36">
+        <f>'48.51 mol%'!I82</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="36">
+        <f>'48.51 mol%'!I83</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="36">
+        <f>'48.51 mol%'!I84</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="42">
+        <f>'48.51 mol%'!I95</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="W16" s="42">
+        <f>'48.51 mol%'!I96</f>
+        <v>6.2</v>
+      </c>
+      <c r="X16" s="42">
+        <f>'48.51 mol%'!I97</f>
+        <v>0.24860723150293831</v>
+      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+    </row>
+    <row r="17" spans="3:40">
+      <c r="C17" s="1">
+        <v>60.61</v>
+      </c>
+      <c r="D17" s="31">
+        <f>'60.61 mol%'!I17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="31">
+        <f>'60.61 mol%'!I18</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="31">
+        <f>'60.61 mol%'!I19</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
+        <f>'60.61 mol%'!I30</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
+        <f>'60.61 mol%'!I31</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="32">
+        <f>'60.61 mol%'!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="33">
+        <f>'60.61 mol%'!I43</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="33">
+        <f>'60.61 mol%'!I44</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="33">
+        <f>'60.61 mol%'!I45</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="34">
+        <f>'60.61 mol%'!I56</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="34">
+        <f>'60.61 mol%'!I57</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="34">
+        <f>'60.61 mol%'!I58</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="35">
+        <f>'60.61 mol%'!I69</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="35">
+        <f>'60.61 mol%'!I70</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="35">
+        <f>'60.61 mol%'!I71</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="41">
+        <f>'60.61 mol%'!I82</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T17" s="41">
+        <f>'60.61 mol%'!I83</f>
+        <v>0.5</v>
+      </c>
+      <c r="U17" s="41">
+        <f>'60.61 mol%'!I84</f>
+        <v>7.9056941504209485E-2</v>
+      </c>
+      <c r="V17" s="37">
+        <f>'60.61 mol%'!I95</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="W17" s="37">
+        <f>'60.61 mol%'!I96</f>
+        <v>6.9</v>
+      </c>
+      <c r="X17" s="37">
+        <f>'60.61 mol%'!I97</f>
+        <v>0.27512623365365296</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+    </row>
+    <row r="18" spans="3:40">
+      <c r="C18" s="1">
+        <v>85.98</v>
+      </c>
+      <c r="D18" s="31">
+        <f>'85.98 mol%'!I17</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="31">
+        <f>'85.98 mol%'!I18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="31">
+        <f>'85.98 mol%'!I19</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="32">
+        <f>'85.98 mol%'!I30</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="32">
+        <f>'85.98 mol%'!I31</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="32">
+        <f>'85.98 mol%'!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="33">
+        <f>'85.98 mol%'!I43</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="33">
+        <f>'85.98 mol%'!I44</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="33">
+        <f>'85.98 mol%'!I45</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="34">
+        <f>'85.98 mol%'!I56</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="34">
+        <f>'85.98 mol%'!I57</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="34">
+        <f>'85.98 mol%'!I58</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="35">
+        <f>'85.98 mol%'!I69</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="35">
+        <f>'85.98 mol%'!I70</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="35">
+        <f>'85.98 mol%'!I71</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="41">
+        <f>'85.98 mol%'!I82</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="41">
+        <f>'85.98 mol%'!I83</f>
+        <v>0.2</v>
+      </c>
+      <c r="U18" s="41">
+        <f>'85.98 mol%'!I84</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="37">
+        <f>'85.98 mol%'!I95</f>
+        <v>0.15</v>
+      </c>
+      <c r="W18" s="37">
+        <f>'85.98 mol%'!I96</f>
+        <v>2.1</v>
+      </c>
+      <c r="X18" s="37">
+        <f>'85.98 mol%'!I97</f>
+        <v>0.21081851067789195</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+    </row>
+    <row r="19" spans="3:40">
+      <c r="C19" s="1">
+        <v>89.93</v>
+      </c>
+      <c r="D19" s="31">
+        <f>'89.93 mol%'!I17</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="31">
+        <f>'89.93 mol%'!I18</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="31">
+        <f>'89.93 mol%'!I19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="32">
+        <f>'89.93 mol%'!I30</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="32">
+        <f>'89.93 mol%'!I31</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="32">
+        <f>'89.93 mol%'!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="33">
+        <f>'89.93 mol%'!I43</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="33">
+        <f>'89.93 mol%'!I44</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="33">
+        <f>'89.93 mol%'!I45</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="34">
+        <f>'89.93 mol%'!I56</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="34">
+        <f>'89.93 mol%'!I57</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="34">
+        <f>'89.93 mol%'!I58</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="35">
+        <f>'89.93 mol%'!I69</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="35">
+        <f>'89.93 mol%'!I70</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="35">
+        <f>'89.93 mol%'!I71</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="41">
+        <f>'89.93 mol%'!I82</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="41">
+        <f>'89.93 mol%'!I83</f>
+        <v>0.2</v>
+      </c>
+      <c r="U19" s="41">
+        <f>'89.93 mol%'!I84</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="37">
+        <f>'89.93 mol%'!I95</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="37">
+        <f>'89.93 mol%'!I96</f>
+        <v>0.4</v>
+      </c>
+      <c r="X19" s="37">
+        <f>'89.93 mol%'!I97</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+    </row>
+    <row r="20" spans="3:40">
+      <c r="C20" s="1">
+        <v>100</v>
+      </c>
+      <c r="D20" s="31">
+        <f>'100 mol%'!I16</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="31">
+        <f>'100 mol%'!I17</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="31">
+        <f>'100 mol%'!I18</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="32">
+        <f>'100 mol%'!I28</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="32">
+        <f>'100 mol%'!I29</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="32">
+        <f>'100 mol%'!I30</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="33">
+        <f>'100 mol%'!I40</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="33">
+        <f>'100 mol%'!I41</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="33">
+        <f>'100 mol%'!I42</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="34">
+        <f>'100 mol%'!I52</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="34">
+        <f>'100 mol%'!I53</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="34">
+        <f>'100 mol%'!I54</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="35">
+        <f>'100 mol%'!I64</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="35">
+        <f>'100 mol%'!I65</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="35">
+        <f>'100 mol%'!I66</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="36">
+        <f>'100 mol%'!I76</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="36">
+        <f>'100 mol%'!I77</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="36">
+        <f>'100 mol%'!I78</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="42">
+        <f>'100 mol%'!I88</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="W20" s="42">
+        <f>'100 mol%'!I89</f>
+        <v>1.5555555555555556</v>
+      </c>
+      <c r="X20" s="42">
+        <f>'100 mol%'!I90</f>
+        <v>0.11023963796102461</v>
+      </c>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
